--- a/IO表（2R,2Y,2Z,X）.xlsx
+++ b/IO表（2R,2Y,2Z,X）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16AFA49-BA99-4CB9-B6F5-40FD7F01ED18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB6B064-78CA-4120-87A3-62A28EDF15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="719">
   <si>
     <t>输入输出模块</t>
   </si>
@@ -2211,6 +2211,10 @@
   </si>
   <si>
     <t>智云客户产品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加继电器喇叭</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2218,7 +2222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2309,6 +2313,15 @@
       <color theme="1"/>
       <name val="@宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2467,7 +2480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2510,24 +2523,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2540,8 +2535,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2817,7 +2833,7 @@
   <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2844,41 +2860,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="15" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="S1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="Y1" s="15" t="s">
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3477,7 +3493,7 @@
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="16" t="s">
         <v>695</v>
       </c>
       <c r="C11" s="1"/>
@@ -3542,7 +3558,7 @@
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>696</v>
       </c>
       <c r="C12" s="1"/>
@@ -3607,7 +3623,7 @@
       <c r="A13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>697</v>
       </c>
       <c r="C13" s="1"/>
@@ -3672,7 +3688,7 @@
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>698</v>
       </c>
       <c r="C14" s="1"/>
@@ -3709,7 +3725,7 @@
       <c r="S14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="T14" s="14" t="s">
         <v>673</v>
       </c>
       <c r="U14" s="7"/>
@@ -3737,7 +3753,7 @@
       <c r="A15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>699</v>
       </c>
       <c r="C15" s="1"/>
@@ -3774,7 +3790,7 @@
       <c r="S15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="14" t="s">
         <v>674</v>
       </c>
       <c r="U15" s="7"/>
@@ -3802,7 +3818,7 @@
       <c r="A16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>700</v>
       </c>
       <c r="C16" s="1"/>
@@ -3839,7 +3855,7 @@
       <c r="S16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="14" t="s">
         <v>675</v>
       </c>
       <c r="U16" s="7"/>
@@ -3852,8 +3868,8 @@
       <c r="Y16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="Z16" s="7" t="s">
-        <v>7</v>
+      <c r="Z16" s="25" t="s">
+        <v>718</v>
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7" t="s">
@@ -3902,7 +3918,7 @@
       <c r="S17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="T17" s="15" t="s">
         <v>692</v>
       </c>
       <c r="U17" s="7"/>
@@ -3932,7 +3948,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>716</v>
       </c>
       <c r="E18" s="2"/>
@@ -3990,34 +4006,34 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="M20" s="14" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="M20" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="S20" s="15" t="s">
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="S20" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="Y20" s="15" t="s">
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="Y20" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G21" s="1" t="s">
@@ -4751,7 +4767,7 @@
       <c r="S34" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="T34" s="21" t="s">
+      <c r="T34" s="15" t="s">
         <v>693</v>
       </c>
       <c r="U34" s="7"/>
@@ -4764,7 +4780,7 @@
       <c r="Y34" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="Z34" s="21" t="s">
+      <c r="Z34" s="15" t="s">
         <v>694</v>
       </c>
       <c r="AA34" s="7"/>
@@ -4951,19 +4967,19 @@
       <c r="K39" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="R39" s="24" t="s">
+      <c r="R39" s="21" t="s">
         <v>717</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T39" s="16" t="s">
+      <c r="T39" s="20" t="s">
         <v>348</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="W39" s="16" t="s">
+      <c r="W39" s="20" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4981,15 +4997,15 @@
       <c r="K40" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R40" s="24"/>
+      <c r="R40" s="21"/>
       <c r="S40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T40" s="16"/>
+      <c r="T40" s="20"/>
       <c r="V40" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="W40" s="16"/>
+      <c r="W40" s="20"/>
     </row>
     <row r="41" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G41" s="1" t="s">
@@ -5005,15 +5021,15 @@
       <c r="K41" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="R41" s="24"/>
+      <c r="R41" s="21"/>
       <c r="S41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T41" s="16"/>
+      <c r="T41" s="20"/>
       <c r="V41" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="W41" s="16"/>
+      <c r="W41" s="20"/>
     </row>
     <row r="42" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G42" s="1" t="s">
@@ -5029,15 +5045,15 @@
       <c r="K42" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="R42" s="24"/>
+      <c r="R42" s="21"/>
       <c r="S42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="16"/>
+      <c r="T42" s="20"/>
       <c r="V42" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W42" s="16"/>
+      <c r="W42" s="20"/>
     </row>
     <row r="43" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
@@ -5053,15 +5069,15 @@
       <c r="K43" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="R43" s="24"/>
+      <c r="R43" s="21"/>
       <c r="S43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T43" s="16"/>
+      <c r="T43" s="20"/>
       <c r="V43" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="W43" s="16"/>
+      <c r="W43" s="20"/>
     </row>
     <row r="44" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G44" s="1" t="s">
@@ -5077,15 +5093,15 @@
       <c r="K44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R44" s="24"/>
+      <c r="R44" s="21"/>
       <c r="S44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T44" s="16"/>
+      <c r="T44" s="20"/>
       <c r="V44" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="W44" s="16"/>
+      <c r="W44" s="20"/>
     </row>
     <row r="45" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G45" s="1" t="s">
@@ -5101,15 +5117,15 @@
       <c r="K45" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="R45" s="24"/>
+      <c r="R45" s="21"/>
       <c r="S45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T45" s="16"/>
+      <c r="T45" s="20"/>
       <c r="V45" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="W45" s="16"/>
+      <c r="W45" s="20"/>
     </row>
     <row r="46" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G46" s="1" t="s">
@@ -5125,15 +5141,15 @@
       <c r="K46" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="R46" s="24"/>
+      <c r="R46" s="21"/>
       <c r="S46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T46" s="16"/>
+      <c r="T46" s="20"/>
       <c r="V46" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="W46" s="16"/>
+      <c r="W46" s="20"/>
     </row>
     <row r="47" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G47" s="1" t="s">
@@ -5149,15 +5165,15 @@
       <c r="K47" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R47" s="24"/>
+      <c r="R47" s="21"/>
       <c r="S47" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="T47" s="16"/>
+      <c r="T47" s="20"/>
       <c r="V47" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="W47" s="16"/>
+      <c r="W47" s="20"/>
     </row>
     <row r="48" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G48" s="1" t="s">
@@ -5173,15 +5189,15 @@
       <c r="K48" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="R48" s="24"/>
+      <c r="R48" s="21"/>
       <c r="S48" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="T48" s="16"/>
+      <c r="T48" s="20"/>
       <c r="V48" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="W48" s="16"/>
+      <c r="W48" s="20"/>
     </row>
     <row r="49" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G49" s="1" t="s">
@@ -5197,15 +5213,15 @@
       <c r="K49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="R49" s="24"/>
+      <c r="R49" s="21"/>
       <c r="S49" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="T49" s="16"/>
+      <c r="T49" s="20"/>
       <c r="V49" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="W49" s="16"/>
+      <c r="W49" s="20"/>
     </row>
     <row r="50" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G50" s="1" t="s">
@@ -5221,15 +5237,15 @@
       <c r="K50" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="R50" s="24"/>
+      <c r="R50" s="21"/>
       <c r="S50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="T50" s="16"/>
+      <c r="T50" s="20"/>
       <c r="V50" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="W50" s="16"/>
+      <c r="W50" s="20"/>
     </row>
     <row r="51" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G51" s="1" t="s">
@@ -5245,15 +5261,15 @@
       <c r="K51" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="R51" s="24"/>
+      <c r="R51" s="21"/>
       <c r="S51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="T51" s="16"/>
+      <c r="T51" s="20"/>
       <c r="V51" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="W51" s="16"/>
+      <c r="W51" s="20"/>
     </row>
     <row r="52" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G52" s="1" t="s">
@@ -5269,15 +5285,15 @@
       <c r="K52" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="R52" s="24"/>
+      <c r="R52" s="21"/>
       <c r="S52" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="T52" s="16"/>
+      <c r="T52" s="20"/>
       <c r="V52" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="W52" s="16"/>
+      <c r="W52" s="20"/>
     </row>
     <row r="53" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G53" s="1" t="s">
@@ -5293,15 +5309,15 @@
       <c r="K53" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="R53" s="24"/>
+      <c r="R53" s="21"/>
       <c r="S53" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="T53" s="16"/>
+      <c r="T53" s="20"/>
       <c r="V53" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="W53" s="16"/>
+      <c r="W53" s="20"/>
     </row>
     <row r="54" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G54" s="1" t="s">
@@ -5317,15 +5333,15 @@
       <c r="K54" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="R54" s="24"/>
+      <c r="R54" s="21"/>
       <c r="S54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="T54" s="16"/>
+      <c r="T54" s="20"/>
       <c r="V54" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="W54" s="16"/>
+      <c r="W54" s="20"/>
     </row>
     <row r="55" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G55" s="1" t="s">
@@ -5341,7 +5357,7 @@
       <c r="K55" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="R55" s="24"/>
+      <c r="R55" s="21"/>
       <c r="S55" s="7" t="s">
         <v>421</v>
       </c>
@@ -5370,7 +5386,7 @@
       <c r="K56" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="R56" s="24"/>
+      <c r="R56" s="21"/>
       <c r="S56" s="7" t="s">
         <v>426</v>
       </c>
@@ -5399,7 +5415,7 @@
       <c r="K57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R57" s="24"/>
+      <c r="R57" s="21"/>
       <c r="S57" s="7" t="s">
         <v>431</v>
       </c>
@@ -5428,7 +5444,7 @@
       <c r="K58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R58" s="24"/>
+      <c r="R58" s="21"/>
       <c r="S58" s="7" t="s">
         <v>436</v>
       </c>
@@ -5457,7 +5473,7 @@
       <c r="K59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R59" s="24"/>
+      <c r="R59" s="21"/>
       <c r="S59" s="7" t="s">
         <v>441</v>
       </c>
@@ -5486,7 +5502,7 @@
       <c r="K60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R60" s="24"/>
+      <c r="R60" s="21"/>
       <c r="S60" s="7" t="s">
         <v>446</v>
       </c>
@@ -5515,7 +5531,7 @@
       <c r="K61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R61" s="24"/>
+      <c r="R61" s="21"/>
       <c r="S61" s="7" t="s">
         <v>451</v>
       </c>
@@ -5544,7 +5560,7 @@
       <c r="K62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R62" s="24"/>
+      <c r="R62" s="21"/>
       <c r="S62" s="7" t="s">
         <v>456</v>
       </c>
@@ -5573,7 +5589,7 @@
       <c r="K63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R63" s="24"/>
+      <c r="R63" s="21"/>
       <c r="S63" s="7" t="s">
         <v>461</v>
       </c>
@@ -5602,7 +5618,7 @@
       <c r="K64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R64" s="24"/>
+      <c r="R64" s="21"/>
       <c r="S64" s="7" t="s">
         <v>466</v>
       </c>
@@ -5631,7 +5647,7 @@
       <c r="K65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R65" s="24"/>
+      <c r="R65" s="21"/>
       <c r="S65" s="7" t="s">
         <v>471</v>
       </c>
@@ -5660,7 +5676,7 @@
       <c r="K66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R66" s="24"/>
+      <c r="R66" s="21"/>
       <c r="S66" s="7" t="s">
         <v>476</v>
       </c>
@@ -5689,7 +5705,7 @@
       <c r="K67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R67" s="24"/>
+      <c r="R67" s="21"/>
       <c r="S67" s="7" t="s">
         <v>481</v>
       </c>
@@ -5718,7 +5734,7 @@
       <c r="K68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R68" s="24"/>
+      <c r="R68" s="21"/>
       <c r="S68" s="7" t="s">
         <v>486</v>
       </c>
@@ -5747,7 +5763,7 @@
       <c r="K69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R69" s="24"/>
+      <c r="R69" s="21"/>
       <c r="S69" s="7" t="s">
         <v>491</v>
       </c>
@@ -5776,7 +5792,7 @@
       <c r="K70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R70" s="24"/>
+      <c r="R70" s="21"/>
       <c r="S70" s="7" t="s">
         <v>496</v>
       </c>
@@ -5805,7 +5821,7 @@
       <c r="K71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R71" s="24"/>
+      <c r="R71" s="21"/>
       <c r="S71" s="7" t="s">
         <v>501</v>
       </c>
@@ -5834,7 +5850,7 @@
       <c r="K72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R72" s="24"/>
+      <c r="R72" s="21"/>
       <c r="S72" s="7" t="s">
         <v>506</v>
       </c>
@@ -5863,7 +5879,7 @@
       <c r="K73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R73" s="24"/>
+      <c r="R73" s="21"/>
       <c r="S73" s="7" t="s">
         <v>511</v>
       </c>
@@ -5892,7 +5908,7 @@
       <c r="K74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R74" s="24"/>
+      <c r="R74" s="21"/>
       <c r="S74" s="7" t="s">
         <v>516</v>
       </c>
@@ -5921,7 +5937,7 @@
       <c r="K75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R75" s="24"/>
+      <c r="R75" s="21"/>
       <c r="S75" s="7" t="s">
         <v>521</v>
       </c>
@@ -5950,7 +5966,7 @@
       <c r="K76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R76" s="24"/>
+      <c r="R76" s="21"/>
       <c r="S76" s="7" t="s">
         <v>526</v>
       </c>
@@ -5979,7 +5995,7 @@
       <c r="K77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R77" s="24"/>
+      <c r="R77" s="21"/>
       <c r="S77" s="7" t="s">
         <v>531</v>
       </c>
@@ -6008,7 +6024,7 @@
       <c r="K78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R78" s="24"/>
+      <c r="R78" s="21"/>
       <c r="S78" s="7" t="s">
         <v>535</v>
       </c>
@@ -6037,7 +6053,7 @@
       <c r="K79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R79" s="24"/>
+      <c r="R79" s="21"/>
       <c r="S79" s="7" t="s">
         <v>539</v>
       </c>
@@ -6066,7 +6082,7 @@
       <c r="K80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R80" s="24"/>
+      <c r="R80" s="21"/>
       <c r="S80" s="7" t="s">
         <v>543</v>
       </c>
@@ -6095,7 +6111,7 @@
       <c r="K81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R81" s="24"/>
+      <c r="R81" s="21"/>
       <c r="S81" s="7" t="s">
         <v>547</v>
       </c>
@@ -6124,7 +6140,7 @@
       <c r="K82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R82" s="24"/>
+      <c r="R82" s="21"/>
       <c r="S82" s="7" t="s">
         <v>551</v>
       </c>
@@ -6153,7 +6169,7 @@
       <c r="K83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R83" s="24"/>
+      <c r="R83" s="21"/>
       <c r="S83" s="7" t="s">
         <v>555</v>
       </c>
@@ -6182,7 +6198,7 @@
       <c r="K84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R84" s="24"/>
+      <c r="R84" s="21"/>
       <c r="S84" s="7" t="s">
         <v>559</v>
       </c>
@@ -6211,7 +6227,7 @@
       <c r="K85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R85" s="24"/>
+      <c r="R85" s="21"/>
       <c r="S85" s="7" t="s">
         <v>563</v>
       </c>
@@ -6240,7 +6256,7 @@
       <c r="K86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R86" s="24"/>
+      <c r="R86" s="21"/>
       <c r="S86" s="7" t="s">
         <v>567</v>
       </c>
@@ -6256,7 +6272,7 @@
       </c>
     </row>
     <row r="87" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R87" s="24"/>
+      <c r="R87" s="21"/>
       <c r="S87" s="7" t="s">
         <v>569</v>
       </c>
@@ -6272,7 +6288,7 @@
       </c>
     </row>
     <row r="88" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R88" s="24"/>
+      <c r="R88" s="21"/>
       <c r="S88" s="7" t="s">
         <v>571</v>
       </c>
@@ -6288,7 +6304,7 @@
       </c>
     </row>
     <row r="89" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R89" s="24"/>
+      <c r="R89" s="21"/>
       <c r="S89" s="7" t="s">
         <v>573</v>
       </c>
@@ -6304,7 +6320,7 @@
       </c>
     </row>
     <row r="90" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R90" s="24"/>
+      <c r="R90" s="21"/>
       <c r="S90" s="7" t="s">
         <v>575</v>
       </c>
@@ -6320,7 +6336,7 @@
       </c>
     </row>
     <row r="91" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R91" s="24"/>
+      <c r="R91" s="21"/>
       <c r="S91" s="7" t="s">
         <v>577</v>
       </c>
@@ -6342,7 +6358,7 @@
       <c r="J92">
         <v>40</v>
       </c>
-      <c r="R92" s="24"/>
+      <c r="R92" s="21"/>
       <c r="S92" s="7" t="s">
         <v>579</v>
       </c>
@@ -6358,7 +6374,7 @@
       </c>
     </row>
     <row r="93" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R93" s="24"/>
+      <c r="R93" s="21"/>
       <c r="S93" s="7" t="s">
         <v>581</v>
       </c>
@@ -6374,7 +6390,7 @@
       </c>
     </row>
     <row r="94" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R94" s="24"/>
+      <c r="R94" s="21"/>
       <c r="S94" s="7" t="s">
         <v>583</v>
       </c>
@@ -6390,7 +6406,7 @@
       </c>
     </row>
     <row r="95" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R95" s="24"/>
+      <c r="R95" s="21"/>
       <c r="S95" s="7" t="s">
         <v>585</v>
       </c>
@@ -6406,7 +6422,7 @@
       </c>
     </row>
     <row r="96" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R96" s="24"/>
+      <c r="R96" s="21"/>
       <c r="S96" s="7" t="s">
         <v>587</v>
       </c>
@@ -6422,7 +6438,7 @@
       </c>
     </row>
     <row r="97" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R97" s="24"/>
+      <c r="R97" s="21"/>
       <c r="S97" s="7" t="s">
         <v>589</v>
       </c>
@@ -6438,7 +6454,7 @@
       </c>
     </row>
     <row r="98" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R98" s="24"/>
+      <c r="R98" s="21"/>
       <c r="S98" s="7" t="s">
         <v>591</v>
       </c>
@@ -6454,7 +6470,7 @@
       </c>
     </row>
     <row r="99" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R99" s="24"/>
+      <c r="R99" s="21"/>
       <c r="S99" s="7" t="s">
         <v>593</v>
       </c>
@@ -6470,7 +6486,7 @@
       </c>
     </row>
     <row r="100" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R100" s="24"/>
+      <c r="R100" s="21"/>
       <c r="S100" s="7" t="s">
         <v>595</v>
       </c>
@@ -6486,7 +6502,7 @@
       </c>
     </row>
     <row r="101" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R101" s="24"/>
+      <c r="R101" s="21"/>
       <c r="S101" s="7" t="s">
         <v>597</v>
       </c>
@@ -6502,7 +6518,7 @@
       </c>
     </row>
     <row r="102" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R102" s="24"/>
+      <c r="R102" s="21"/>
       <c r="S102" s="7" t="s">
         <v>599</v>
       </c>
@@ -6781,6 +6797,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="S20:W20"/>
@@ -6788,11 +6809,6 @@
     <mergeCell ref="T39:T54"/>
     <mergeCell ref="W39:W54"/>
     <mergeCell ref="R39:R102"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6845,25 +6861,25 @@
       <c r="A2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="18">
         <v>224</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="I2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="18">
         <v>224</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="18"/>
       <c r="M2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="18">
         <v>222</v>
       </c>
-      <c r="O2" s="14"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -6905,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="14">
+      <c r="D4" s="18">
         <f>SUM(B4:B11)</f>
         <v>8</v>
       </c>
@@ -6915,7 +6931,7 @@
       <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="18">
         <f>SUM(J4:J17)</f>
         <v>17</v>
       </c>
@@ -6925,7 +6941,7 @@
       <c r="N4" s="1">
         <v>4</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="18">
         <f>SUM(N4:N17)</f>
         <v>14</v>
       </c>
@@ -6938,21 +6954,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="18"/>
       <c r="I5" s="1" t="s">
         <v>644</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="18"/>
       <c r="M5" s="1" t="s">
         <v>644</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="14"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -6962,21 +6978,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="18"/>
       <c r="I6" s="1" t="s">
         <v>646</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="18"/>
       <c r="M6" s="1" t="s">
         <v>646</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -6986,21 +7002,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="18"/>
       <c r="I7" s="1" t="s">
         <v>647</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="18"/>
       <c r="M7" s="1" t="s">
         <v>647</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="14"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -7010,21 +7026,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="18"/>
       <c r="I8" s="1" t="s">
         <v>650</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="18"/>
       <c r="M8" s="1" t="s">
         <v>650</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="14"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -7034,21 +7050,21 @@
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="18"/>
       <c r="I9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="18"/>
       <c r="M9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="14"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -7058,21 +7074,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="18"/>
       <c r="I10" s="1" t="s">
         <v>654</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="18"/>
       <c r="M10" s="1" t="s">
         <v>654</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="14"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -7082,21 +7098,21 @@
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="18"/>
       <c r="I11" s="1" t="s">
         <v>656</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="18"/>
       <c r="M11" s="1" t="s">
         <v>656</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I12" s="1" t="s">
@@ -7105,14 +7121,14 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="18"/>
       <c r="M12" s="1" t="s">
         <v>657</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="14"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I13" s="1" t="s">
@@ -7121,38 +7137,38 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="18"/>
       <c r="M13" s="1" t="s">
         <v>659</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="14"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="18">
         <v>223</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="I14" s="1" t="s">
         <v>660</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="18"/>
       <c r="M14" s="1" t="s">
         <v>661</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="14"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -7173,10 +7189,10 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="18"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -7186,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="18">
+      <c r="D16" s="23">
         <f>SUM(B16:B27)</f>
         <v>12</v>
       </c>
@@ -7196,10 +7212,10 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="18"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="14"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -7209,17 +7225,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="24"/>
       <c r="I17" s="1" t="s">
         <v>664</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="18"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="14"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -7229,17 +7245,17 @@
         <v>1</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="19"/>
-      <c r="I18" s="17" t="s">
+      <c r="D18" s="24"/>
+      <c r="I18" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="M18" s="17" t="s">
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="M18" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -7249,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -7259,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="19"/>
+      <c r="D20" s="24"/>
       <c r="I20" s="1" t="s">
         <v>637</v>
       </c>
@@ -7278,14 +7294,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="24"/>
       <c r="I21" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="18">
         <v>223</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -7295,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="19"/>
+      <c r="D22" s="24"/>
       <c r="I22" s="1" t="s">
         <v>640</v>
       </c>
@@ -7314,14 +7330,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="19"/>
+      <c r="D23" s="24"/>
       <c r="I23" s="1" t="s">
         <v>645</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="18">
         <f>SUM(J23:J37)</f>
         <v>16</v>
       </c>
@@ -7334,14 +7350,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="19"/>
+      <c r="D24" s="24"/>
       <c r="I24" s="1" t="s">
         <v>644</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -7351,14 +7367,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="19"/>
+      <c r="D25" s="24"/>
       <c r="I25" s="1" t="s">
         <v>646</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -7368,14 +7384,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="24"/>
       <c r="I26" s="1" t="s">
         <v>647</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
@@ -7385,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="24"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I28" s="1" t="s">
@@ -7397,24 +7413,24 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="18">
         <v>222</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="I29" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="14"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -7435,7 +7451,7 @@
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="14"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -7445,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="14">
+      <c r="D31" s="18">
         <f>SUM(B31:B40)</f>
         <v>10</v>
       </c>
@@ -7455,7 +7471,7 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="14"/>
+      <c r="K31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -7465,14 +7481,14 @@
         <v>1</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="18"/>
       <c r="I32" s="1" t="s">
         <v>657</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -7482,14 +7498,14 @@
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="18"/>
       <c r="I33" s="1" t="s">
         <v>669</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="14"/>
+      <c r="K33" s="18"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
@@ -7499,14 +7515,14 @@
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="18"/>
       <c r="I34" s="1" t="s">
         <v>663</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="14"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -7516,14 +7532,14 @@
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="18"/>
       <c r="I35" s="1" t="s">
         <v>670</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="K35" s="14"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -7533,14 +7549,14 @@
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="18"/>
       <c r="I36" s="1" t="s">
         <v>671</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -7550,10 +7566,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="18"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="14"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -7563,12 +7579,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="14"/>
-      <c r="I38" s="17" t="s">
+      <c r="D38" s="18"/>
+      <c r="I38" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -7578,12 +7594,12 @@
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="14"/>
-      <c r="I39" s="17" t="s">
+      <c r="D39" s="18"/>
+      <c r="I39" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -7593,17 +7609,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="14"/>
+      <c r="D40" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="K4:K17"/>
-    <mergeCell ref="K23:K37"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="N2:O2"/>
@@ -7613,6 +7622,13 @@
     <mergeCell ref="O4:O17"/>
     <mergeCell ref="D16:D27"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="K4:K17"/>
+    <mergeCell ref="K23:K37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IO表（2R,2Y,2Z,X）.xlsx
+++ b/IO表（2R,2Y,2Z,X）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB6B064-78CA-4120-87A3-62A28EDF15E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD9248-B91A-487E-8D1F-DE1EF93CEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30210" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="718">
   <si>
     <t>输入输出模块</t>
   </si>
@@ -2211,10 +2211,6 @@
   </si>
   <si>
     <t>智云客户产品</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加继电器喇叭</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2222,7 +2218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2323,6 +2319,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2362,7 +2367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2383,19 +2388,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2467,7 +2459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2480,7 +2472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2497,9 +2489,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2523,16 +2512,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2544,19 +2530,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2833,12 +2822,12 @@
   <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="3" max="3" width="3.75" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
@@ -2860,41 +2849,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="S1" s="19" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="S1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="Y1" s="19" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="Y1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2936,30 +2925,30 @@
       <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2971,7 +2960,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>701</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3003,30 +2992,30 @@
       <c r="Q3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3038,7 +3027,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>702</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3047,7 +3036,7 @@
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="1"/>
@@ -3070,30 +3059,30 @@
       <c r="Q4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="T4" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7" t="s">
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AC4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3105,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>703</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3114,7 +3103,7 @@
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="1"/>
@@ -3137,30 +3126,30 @@
       <c r="Q5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="T5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7" t="s">
+      <c r="U5" s="6"/>
+      <c r="V5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7" t="s">
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AC5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3172,7 +3161,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>704</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3181,7 +3170,7 @@
       <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="1"/>
@@ -3204,30 +3193,30 @@
       <c r="Q6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="6" t="s">
         <v>46</v>
       </c>
       <c r="T6" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7" t="s">
+      <c r="U6" s="6"/>
+      <c r="V6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7" t="s">
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3239,14 +3228,14 @@
         <v>57</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>705</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="1"/>
@@ -3269,30 +3258,30 @@
       <c r="Q7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T7" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7" t="s">
+      <c r="U7" s="6"/>
+      <c r="V7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7" t="s">
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3304,14 +3293,14 @@
         <v>69</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>706</v>
       </c>
       <c r="E8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="1"/>
@@ -3334,30 +3323,30 @@
       <c r="Q8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="6" t="s">
         <v>70</v>
       </c>
       <c r="T8" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7" t="s">
+      <c r="U8" s="6"/>
+      <c r="V8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Y8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="Z8" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7" t="s">
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AC8" s="7" t="s">
+      <c r="AC8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3369,14 +3358,14 @@
         <v>81</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>707</v>
       </c>
       <c r="E9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>83</v>
       </c>
       <c r="I9" s="1"/>
@@ -3399,30 +3388,30 @@
       <c r="Q9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="6" t="s">
         <v>82</v>
       </c>
       <c r="T9" t="s">
         <v>83</v>
       </c>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7" t="s">
+      <c r="U9" s="6"/>
+      <c r="V9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="W9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="7" t="s">
+      <c r="W9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7" t="s">
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AC9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3432,7 +3421,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>708</v>
       </c>
       <c r="E10" s="1"/>
@@ -3462,30 +3451,30 @@
       <c r="Q10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="6" t="s">
         <v>92</v>
       </c>
       <c r="T10" t="s">
         <v>93</v>
       </c>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7" t="s">
+      <c r="U10" s="6"/>
+      <c r="V10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="W10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="7" t="s">
+      <c r="W10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="Z10" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7" t="s">
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AC10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3493,11 +3482,11 @@
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="24" t="s">
         <v>695</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>709</v>
       </c>
       <c r="E11" s="1"/>
@@ -3527,30 +3516,30 @@
       <c r="Q11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="6" t="s">
         <v>108</v>
       </c>
       <c r="T11" t="s">
         <v>103</v>
       </c>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7" t="s">
+      <c r="U11" s="6"/>
+      <c r="V11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="W11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y11" s="7" t="s">
+      <c r="W11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="Z11" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7" t="s">
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AC11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3558,11 +3547,11 @@
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="24" t="s">
         <v>696</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>710</v>
       </c>
       <c r="E12" s="1"/>
@@ -3592,30 +3581,30 @@
       <c r="Q12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7" t="s">
+      <c r="U12" s="6"/>
+      <c r="V12" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="W12" s="7" t="s">
+      <c r="W12" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Y12" s="6" t="s">
         <v>122</v>
       </c>
       <c r="Z12" t="s">
         <v>118</v>
       </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7" t="s">
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AC12" s="7" t="s">
+      <c r="AC12" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3623,11 +3612,11 @@
       <c r="A13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="24" t="s">
         <v>697</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>711</v>
       </c>
       <c r="E13" s="1"/>
@@ -3657,30 +3646,30 @@
       <c r="Q13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7" t="s">
+      <c r="U13" s="6"/>
+      <c r="V13" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Y13" s="7" t="s">
+      <c r="Y13" s="6" t="s">
         <v>134</v>
       </c>
       <c r="Z13" t="s">
         <v>130</v>
       </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7" t="s">
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AC13" s="7" t="s">
+      <c r="AC13" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3688,11 +3677,11 @@
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="24" t="s">
         <v>698</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>712</v>
       </c>
       <c r="E14" s="1"/>
@@ -3722,30 +3711,30 @@
       <c r="Q14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="T14" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7" t="s">
+      <c r="U14" s="6"/>
+      <c r="V14" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="Y14" s="7" t="s">
+      <c r="Y14" s="6" t="s">
         <v>145</v>
       </c>
       <c r="Z14" t="s">
         <v>141</v>
       </c>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7" t="s">
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="AC14" s="7" t="s">
+      <c r="AC14" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3753,11 +3742,11 @@
       <c r="A15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="24" t="s">
         <v>699</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>713</v>
       </c>
       <c r="E15" s="1"/>
@@ -3787,30 +3776,30 @@
       <c r="Q15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7" t="s">
+      <c r="U15" s="6"/>
+      <c r="V15" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="6" t="s">
         <v>156</v>
       </c>
       <c r="Z15" t="s">
         <v>152</v>
       </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7" t="s">
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AC15" s="7" t="s">
+      <c r="AC15" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3818,11 +3807,11 @@
       <c r="A16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="24" t="s">
         <v>700</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>714</v>
       </c>
       <c r="E16" s="1"/>
@@ -3852,30 +3841,28 @@
       <c r="Q16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7" t="s">
+      <c r="U16" s="6"/>
+      <c r="V16" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="W16" s="7" t="s">
+      <c r="W16" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Y16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="Z16" s="25" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7" t="s">
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AC16" s="7" t="s">
+      <c r="AC16" s="23" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3885,7 +3872,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>715</v>
       </c>
       <c r="E17" s="1"/>
@@ -3915,43 +3902,43 @@
       <c r="Q17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7" t="s">
+      <c r="U17" s="6"/>
+      <c r="V17" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="W17" s="7" t="s">
+      <c r="W17" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="Y17" s="7" t="s">
+      <c r="Y17" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="Z17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7" t="s">
+      <c r="Z17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AC17" s="7" t="s">
+      <c r="AC17" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="G18" s="1" t="s">
         <v>179</v>
       </c>
@@ -3978,62 +3965,62 @@
       <c r="Q18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="T18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7" t="s">
+      <c r="T18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="W18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y18" s="7" t="s">
+      <c r="W18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="Z18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7" t="s">
+      <c r="Z18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="AC18" s="7" t="s">
+      <c r="AC18" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="M20" s="18" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="M20" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="S20" s="19" t="s">
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="S20" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="Y20" s="19" t="s">
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="Y20" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G21" s="1" t="s">
@@ -4062,42 +4049,42 @@
       <c r="Q21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
+      <c r="U21" s="6"/>
+      <c r="V21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W21" s="7" t="s">
+      <c r="W21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="7" t="s">
+      <c r="Y21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Z21" s="7" t="s">
+      <c r="Z21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7" t="s">
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AC21" s="7" t="s">
+      <c r="AC21" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>189</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>190</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>191</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -4116,42 +4103,42 @@
       <c r="Q22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7" t="s">
+      <c r="U22" s="6"/>
+      <c r="V22" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="W22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y22" s="7" t="s">
+      <c r="W22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="Z22" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7" t="s">
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AC22" s="7" t="s">
+      <c r="AC22" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>199</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>200</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>201</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -4170,42 +4157,42 @@
       <c r="Q23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7" t="s">
+      <c r="U23" s="6"/>
+      <c r="V23" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="W23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y23" s="7" t="s">
+      <c r="W23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="Z23" s="12" t="s">
+      <c r="Z23" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7" t="s">
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AC23" s="7" t="s">
+      <c r="AC23" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>209</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>210</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>211</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -4224,42 +4211,42 @@
       <c r="Q24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="T24" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7" t="s">
+      <c r="U24" s="6"/>
+      <c r="V24" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="W24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y24" s="7" t="s">
+      <c r="W24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="Z24" s="12" t="s">
+      <c r="Z24" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7" t="s">
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="AC24" s="7" t="s">
+      <c r="AC24" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>219</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>220</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>221</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -4278,42 +4265,42 @@
       <c r="Q25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7" t="s">
+      <c r="U25" s="6"/>
+      <c r="V25" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="W25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y25" s="7" t="s">
+      <c r="W25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="Z25" s="7" t="s">
+      <c r="Z25" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7" t="s">
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AC25" s="7" t="s">
+      <c r="AC25" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>229</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>230</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="5" t="s">
         <v>231</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -4332,42 +4319,42 @@
       <c r="Q26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="S26" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7" t="s">
+      <c r="U26" s="6"/>
+      <c r="V26" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="W26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y26" s="7" t="s">
+      <c r="W26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="Z26" s="7" t="s">
+      <c r="Z26" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7" t="s">
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AC26" s="7" t="s">
+      <c r="AC26" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>239</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>240</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>241</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -4386,42 +4373,42 @@
       <c r="Q27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7" t="s">
+      <c r="U27" s="6"/>
+      <c r="V27" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="W27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y27" s="7" t="s">
+      <c r="W27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="Z27" s="7" t="s">
+      <c r="Z27" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7" t="s">
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="AC27" s="7" t="s">
+      <c r="AC27" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>249</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>250</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>251</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -4440,42 +4427,42 @@
       <c r="Q28" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="6" t="s">
         <v>257</v>
       </c>
       <c r="T28" t="s">
         <v>250</v>
       </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7" t="s">
+      <c r="U28" s="6"/>
+      <c r="V28" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="Y28" s="7" t="s">
+      <c r="Y28" s="6" t="s">
         <v>259</v>
       </c>
       <c r="Z28" t="s">
         <v>254</v>
       </c>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7" t="s">
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="AC28" s="7" t="s">
+      <c r="AC28" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>261</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>262</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>263</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -4494,35 +4481,35 @@
       <c r="Q29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="6" t="s">
         <v>269</v>
       </c>
       <c r="T29" t="s">
         <v>262</v>
       </c>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7" t="s">
+      <c r="U29" s="6"/>
+      <c r="V29" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="W29" s="7" t="s">
+      <c r="W29" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="Y29" s="7" t="s">
+      <c r="Y29" s="6" t="s">
         <v>271</v>
       </c>
       <c r="Z29" t="s">
         <v>266</v>
       </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7" t="s">
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="AC29" s="7" t="s">
+      <c r="AC29" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>273</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -4548,35 +4535,35 @@
       <c r="Q30" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="S30" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="T30" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7" t="s">
+      <c r="U30" s="6"/>
+      <c r="V30" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="W30" s="7" t="s">
+      <c r="W30" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="Y30" s="7" t="s">
+      <c r="Y30" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="Z30" s="8" t="s">
+      <c r="Z30" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7" t="s">
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AC30" s="7" t="s">
+      <c r="AC30" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>283</v>
       </c>
       <c r="H31" t="s">
@@ -4602,35 +4589,35 @@
       <c r="Q31" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7" t="s">
+      <c r="U31" s="6"/>
+      <c r="V31" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="W31" s="7" t="s">
+      <c r="W31" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="Y31" s="7" t="s">
+      <c r="Y31" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="Z31" s="7" t="s">
+      <c r="Z31" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7" t="s">
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="AC31" s="7" t="s">
+      <c r="AC31" s="6" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>293</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -4656,35 +4643,35 @@
       <c r="Q32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="S32" s="6" t="s">
         <v>299</v>
       </c>
       <c r="T32" t="s">
         <v>294</v>
       </c>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7" t="s">
+      <c r="U32" s="6"/>
+      <c r="V32" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="W32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y32" s="7" t="s">
+      <c r="W32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="6" t="s">
         <v>301</v>
       </c>
       <c r="Z32" t="s">
         <v>297</v>
       </c>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7" t="s">
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="AC32" s="7" t="s">
+      <c r="AC32" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="7:29" x14ac:dyDescent="0.15">
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>303</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -4710,35 +4697,35 @@
       <c r="Q33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="S33" s="6" t="s">
         <v>309</v>
       </c>
       <c r="T33" t="s">
         <v>304</v>
       </c>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7" t="s">
+      <c r="U33" s="6"/>
+      <c r="V33" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="W33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y33" s="7" t="s">
+      <c r="W33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="6" t="s">
         <v>311</v>
       </c>
       <c r="Z33" t="s">
         <v>307</v>
       </c>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7" t="s">
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AC33" s="7" t="s">
+      <c r="AC33" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="7:29" x14ac:dyDescent="0.15">
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>313</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -4764,35 +4751,35 @@
       <c r="Q34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="S34" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7" t="s">
+      <c r="U34" s="6"/>
+      <c r="V34" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="W34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y34" s="7" t="s">
+      <c r="W34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y34" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="Z34" s="15" t="s">
+      <c r="Z34" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7" t="s">
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="AC34" s="7" t="s">
+      <c r="AC34" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="7:29" x14ac:dyDescent="0.15">
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>321</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -4818,35 +4805,35 @@
       <c r="Q35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S35" s="7" t="s">
+      <c r="S35" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="T35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7" t="s">
+      <c r="T35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="W35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y35" s="7" t="s">
+      <c r="W35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="Z35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7" t="s">
+      <c r="Z35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="AC35" s="7" t="s">
+      <c r="AC35" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="7:29" x14ac:dyDescent="0.15">
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>329</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -4872,35 +4859,35 @@
       <c r="Q36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="7" t="s">
+      <c r="S36" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="T36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7" t="s">
+      <c r="T36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="W36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y36" s="7" t="s">
+      <c r="W36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="Z36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7" t="s">
+      <c r="Z36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AC36" s="7" t="s">
+      <c r="AC36" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="7:29" x14ac:dyDescent="0.15">
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>337</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -4926,30 +4913,30 @@
       <c r="Q37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S37" s="7" t="s">
+      <c r="S37" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="T37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7" t="s">
+      <c r="T37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="W37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y37" s="7" t="s">
+      <c r="W37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="Z37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7" t="s">
+      <c r="Z37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AC37" s="7" t="s">
+      <c r="AC37" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4967,19 +4954,19 @@
       <c r="K39" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="R39" s="21" t="s">
+      <c r="R39" s="19" t="s">
         <v>717</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T39" s="20" t="s">
+      <c r="T39" s="18" t="s">
         <v>348</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="W39" s="20" t="s">
+      <c r="W39" s="18" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4997,15 +4984,15 @@
       <c r="K40" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R40" s="21"/>
+      <c r="R40" s="19"/>
       <c r="S40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T40" s="20"/>
+      <c r="T40" s="18"/>
       <c r="V40" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="W40" s="20"/>
+      <c r="W40" s="18"/>
     </row>
     <row r="41" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G41" s="1" t="s">
@@ -5021,15 +5008,15 @@
       <c r="K41" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="R41" s="21"/>
+      <c r="R41" s="19"/>
       <c r="S41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T41" s="20"/>
+      <c r="T41" s="18"/>
       <c r="V41" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="W41" s="20"/>
+      <c r="W41" s="18"/>
     </row>
     <row r="42" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G42" s="1" t="s">
@@ -5045,15 +5032,15 @@
       <c r="K42" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="R42" s="21"/>
+      <c r="R42" s="19"/>
       <c r="S42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="20"/>
+      <c r="T42" s="18"/>
       <c r="V42" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W42" s="20"/>
+      <c r="W42" s="18"/>
     </row>
     <row r="43" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
@@ -5069,15 +5056,15 @@
       <c r="K43" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="R43" s="21"/>
+      <c r="R43" s="19"/>
       <c r="S43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T43" s="20"/>
+      <c r="T43" s="18"/>
       <c r="V43" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="W43" s="20"/>
+      <c r="W43" s="18"/>
     </row>
     <row r="44" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G44" s="1" t="s">
@@ -5093,15 +5080,15 @@
       <c r="K44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R44" s="21"/>
+      <c r="R44" s="19"/>
       <c r="S44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T44" s="20"/>
+      <c r="T44" s="18"/>
       <c r="V44" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="W44" s="20"/>
+      <c r="W44" s="18"/>
     </row>
     <row r="45" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G45" s="1" t="s">
@@ -5117,15 +5104,15 @@
       <c r="K45" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="R45" s="21"/>
+      <c r="R45" s="19"/>
       <c r="S45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T45" s="20"/>
+      <c r="T45" s="18"/>
       <c r="V45" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="W45" s="20"/>
+      <c r="W45" s="18"/>
     </row>
     <row r="46" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G46" s="1" t="s">
@@ -5141,15 +5128,15 @@
       <c r="K46" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="R46" s="21"/>
+      <c r="R46" s="19"/>
       <c r="S46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T46" s="20"/>
+      <c r="T46" s="18"/>
       <c r="V46" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="W46" s="20"/>
+      <c r="W46" s="18"/>
     </row>
     <row r="47" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G47" s="1" t="s">
@@ -5165,15 +5152,15 @@
       <c r="K47" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R47" s="21"/>
+      <c r="R47" s="19"/>
       <c r="S47" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="T47" s="20"/>
+      <c r="T47" s="18"/>
       <c r="V47" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="W47" s="20"/>
+      <c r="W47" s="18"/>
     </row>
     <row r="48" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G48" s="1" t="s">
@@ -5189,15 +5176,15 @@
       <c r="K48" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="R48" s="21"/>
+      <c r="R48" s="19"/>
       <c r="S48" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="T48" s="20"/>
+      <c r="T48" s="18"/>
       <c r="V48" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="W48" s="20"/>
+      <c r="W48" s="18"/>
     </row>
     <row r="49" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G49" s="1" t="s">
@@ -5213,15 +5200,15 @@
       <c r="K49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="R49" s="21"/>
+      <c r="R49" s="19"/>
       <c r="S49" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="T49" s="20"/>
+      <c r="T49" s="18"/>
       <c r="V49" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="W49" s="20"/>
+      <c r="W49" s="18"/>
     </row>
     <row r="50" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G50" s="1" t="s">
@@ -5237,15 +5224,15 @@
       <c r="K50" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="R50" s="21"/>
+      <c r="R50" s="19"/>
       <c r="S50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="T50" s="20"/>
+      <c r="T50" s="18"/>
       <c r="V50" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="W50" s="20"/>
+      <c r="W50" s="18"/>
     </row>
     <row r="51" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G51" s="1" t="s">
@@ -5261,15 +5248,15 @@
       <c r="K51" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="R51" s="21"/>
+      <c r="R51" s="19"/>
       <c r="S51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="T51" s="20"/>
+      <c r="T51" s="18"/>
       <c r="V51" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="W51" s="20"/>
+      <c r="W51" s="18"/>
     </row>
     <row r="52" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G52" s="1" t="s">
@@ -5285,15 +5272,15 @@
       <c r="K52" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="R52" s="21"/>
+      <c r="R52" s="19"/>
       <c r="S52" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="T52" s="20"/>
+      <c r="T52" s="18"/>
       <c r="V52" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="W52" s="20"/>
+      <c r="W52" s="18"/>
     </row>
     <row r="53" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G53" s="1" t="s">
@@ -5309,15 +5296,15 @@
       <c r="K53" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="R53" s="21"/>
+      <c r="R53" s="19"/>
       <c r="S53" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="T53" s="20"/>
+      <c r="T53" s="18"/>
       <c r="V53" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="W53" s="20"/>
+      <c r="W53" s="18"/>
     </row>
     <row r="54" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G54" s="1" t="s">
@@ -5333,15 +5320,15 @@
       <c r="K54" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="R54" s="21"/>
+      <c r="R54" s="19"/>
       <c r="S54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="T54" s="20"/>
+      <c r="T54" s="18"/>
       <c r="V54" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="W54" s="20"/>
+      <c r="W54" s="18"/>
     </row>
     <row r="55" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G55" s="1" t="s">
@@ -5357,18 +5344,18 @@
       <c r="K55" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="R55" s="21"/>
-      <c r="S55" s="7" t="s">
+      <c r="R55" s="19"/>
+      <c r="S55" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="T55" s="7" t="s">
+      <c r="T55" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="U55" s="8"/>
-      <c r="V55" s="7" t="s">
+      <c r="U55" s="7"/>
+      <c r="V55" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="W55" s="7" t="s">
+      <c r="W55" s="6" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5386,18 +5373,18 @@
       <c r="K56" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="R56" s="21"/>
-      <c r="S56" s="7" t="s">
+      <c r="R56" s="19"/>
+      <c r="S56" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="T56" s="7" t="s">
+      <c r="T56" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="U56" s="8"/>
-      <c r="V56" s="7" t="s">
+      <c r="U56" s="7"/>
+      <c r="V56" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="W56" s="7" t="s">
+      <c r="W56" s="6" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5415,18 +5402,18 @@
       <c r="K57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R57" s="21"/>
-      <c r="S57" s="7" t="s">
+      <c r="R57" s="19"/>
+      <c r="S57" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="T57" s="7" t="s">
+      <c r="T57" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="U57" s="8"/>
-      <c r="V57" s="7" t="s">
+      <c r="U57" s="7"/>
+      <c r="V57" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="W57" s="7" t="s">
+      <c r="W57" s="6" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5444,18 +5431,18 @@
       <c r="K58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R58" s="21"/>
-      <c r="S58" s="7" t="s">
+      <c r="R58" s="19"/>
+      <c r="S58" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="T58" s="7" t="s">
+      <c r="T58" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="U58" s="8"/>
-      <c r="V58" s="7" t="s">
+      <c r="U58" s="7"/>
+      <c r="V58" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="W58" s="7" t="s">
+      <c r="W58" s="6" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5473,18 +5460,18 @@
       <c r="K59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R59" s="21"/>
-      <c r="S59" s="7" t="s">
+      <c r="R59" s="19"/>
+      <c r="S59" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="T59" s="7" t="s">
+      <c r="T59" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="U59" s="8"/>
-      <c r="V59" s="7" t="s">
+      <c r="U59" s="7"/>
+      <c r="V59" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="W59" s="7" t="s">
+      <c r="W59" s="6" t="s">
         <v>363</v>
       </c>
     </row>
@@ -5502,18 +5489,18 @@
       <c r="K60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R60" s="21"/>
-      <c r="S60" s="7" t="s">
+      <c r="R60" s="19"/>
+      <c r="S60" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="T60" s="7" t="s">
+      <c r="T60" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="U60" s="8"/>
-      <c r="V60" s="7" t="s">
+      <c r="U60" s="7"/>
+      <c r="V60" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="W60" s="7" t="s">
+      <c r="W60" s="6" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5531,18 +5518,18 @@
       <c r="K61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R61" s="21"/>
-      <c r="S61" s="7" t="s">
+      <c r="R61" s="19"/>
+      <c r="S61" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="T61" s="7" t="s">
+      <c r="T61" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="U61" s="8"/>
-      <c r="V61" s="7" t="s">
+      <c r="U61" s="7"/>
+      <c r="V61" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="W61" s="7" t="s">
+      <c r="W61" s="6" t="s">
         <v>371</v>
       </c>
     </row>
@@ -5560,18 +5547,18 @@
       <c r="K62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R62" s="21"/>
-      <c r="S62" s="7" t="s">
+      <c r="R62" s="19"/>
+      <c r="S62" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="T62" s="7" t="s">
+      <c r="T62" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="U62" s="8"/>
-      <c r="V62" s="7" t="s">
+      <c r="U62" s="7"/>
+      <c r="V62" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="W62" s="7" t="s">
+      <c r="W62" s="6" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5589,18 +5576,18 @@
       <c r="K63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R63" s="21"/>
-      <c r="S63" s="7" t="s">
+      <c r="R63" s="19"/>
+      <c r="S63" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="T63" s="7" t="s">
+      <c r="T63" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="U63" s="8"/>
-      <c r="V63" s="7" t="s">
+      <c r="U63" s="7"/>
+      <c r="V63" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="W63" s="7" t="s">
+      <c r="W63" s="6" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5618,18 +5605,18 @@
       <c r="K64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R64" s="21"/>
-      <c r="S64" s="7" t="s">
+      <c r="R64" s="19"/>
+      <c r="S64" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="T64" s="7" t="s">
+      <c r="T64" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="U64" s="8"/>
-      <c r="V64" s="7" t="s">
+      <c r="U64" s="7"/>
+      <c r="V64" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="W64" s="7" t="s">
+      <c r="W64" s="6" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5647,18 +5634,18 @@
       <c r="K65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R65" s="21"/>
-      <c r="S65" s="7" t="s">
+      <c r="R65" s="19"/>
+      <c r="S65" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="T65" s="7" t="s">
+      <c r="T65" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="U65" s="8"/>
-      <c r="V65" s="7" t="s">
+      <c r="U65" s="7"/>
+      <c r="V65" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="W65" s="7" t="s">
+      <c r="W65" s="6" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5676,18 +5663,18 @@
       <c r="K66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R66" s="21"/>
-      <c r="S66" s="7" t="s">
+      <c r="R66" s="19"/>
+      <c r="S66" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="T66" s="7" t="s">
+      <c r="T66" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="U66" s="8"/>
-      <c r="V66" s="7" t="s">
+      <c r="U66" s="7"/>
+      <c r="V66" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="W66" s="7" t="s">
+      <c r="W66" s="6" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5705,18 +5692,18 @@
       <c r="K67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R67" s="21"/>
-      <c r="S67" s="7" t="s">
+      <c r="R67" s="19"/>
+      <c r="S67" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="T67" s="7" t="s">
+      <c r="T67" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="U67" s="8"/>
-      <c r="V67" s="7" t="s">
+      <c r="U67" s="7"/>
+      <c r="V67" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="W67" s="7" t="s">
+      <c r="W67" s="6" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5734,18 +5721,18 @@
       <c r="K68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R68" s="21"/>
-      <c r="S68" s="7" t="s">
+      <c r="R68" s="19"/>
+      <c r="S68" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="T68" s="7" t="s">
+      <c r="T68" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="U68" s="8"/>
-      <c r="V68" s="7" t="s">
+      <c r="U68" s="7"/>
+      <c r="V68" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="W68" s="7" t="s">
+      <c r="W68" s="6" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5763,18 +5750,18 @@
       <c r="K69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R69" s="21"/>
-      <c r="S69" s="7" t="s">
+      <c r="R69" s="19"/>
+      <c r="S69" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="T69" s="7" t="s">
+      <c r="T69" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="U69" s="8"/>
-      <c r="V69" s="7" t="s">
+      <c r="U69" s="7"/>
+      <c r="V69" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="W69" s="7" t="s">
+      <c r="W69" s="6" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5792,18 +5779,18 @@
       <c r="K70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R70" s="21"/>
-      <c r="S70" s="7" t="s">
+      <c r="R70" s="19"/>
+      <c r="S70" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="T70" s="7" t="s">
+      <c r="T70" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="U70" s="8"/>
-      <c r="V70" s="7" t="s">
+      <c r="U70" s="7"/>
+      <c r="V70" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="W70" s="7" t="s">
+      <c r="W70" s="6" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5821,18 +5808,18 @@
       <c r="K71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R71" s="21"/>
-      <c r="S71" s="7" t="s">
+      <c r="R71" s="19"/>
+      <c r="S71" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="T71" s="7" t="s">
+      <c r="T71" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="U71" s="8"/>
-      <c r="V71" s="7" t="s">
+      <c r="U71" s="7"/>
+      <c r="V71" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="W71" s="7" t="s">
+      <c r="W71" s="6" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5850,18 +5837,18 @@
       <c r="K72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R72" s="21"/>
-      <c r="S72" s="7" t="s">
+      <c r="R72" s="19"/>
+      <c r="S72" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="T72" s="7" t="s">
+      <c r="T72" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="U72" s="8"/>
-      <c r="V72" s="7" t="s">
+      <c r="U72" s="7"/>
+      <c r="V72" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="W72" s="7" t="s">
+      <c r="W72" s="6" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5879,18 +5866,18 @@
       <c r="K73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R73" s="21"/>
-      <c r="S73" s="7" t="s">
+      <c r="R73" s="19"/>
+      <c r="S73" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="T73" s="7" t="s">
+      <c r="T73" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="U73" s="8"/>
-      <c r="V73" s="7" t="s">
+      <c r="U73" s="7"/>
+      <c r="V73" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="W73" s="7" t="s">
+      <c r="W73" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5908,18 +5895,18 @@
       <c r="K74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R74" s="21"/>
-      <c r="S74" s="7" t="s">
+      <c r="R74" s="19"/>
+      <c r="S74" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="T74" s="7" t="s">
+      <c r="T74" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="U74" s="8"/>
-      <c r="V74" s="7" t="s">
+      <c r="U74" s="7"/>
+      <c r="V74" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="W74" s="7" t="s">
+      <c r="W74" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5937,18 +5924,18 @@
       <c r="K75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R75" s="21"/>
-      <c r="S75" s="7" t="s">
+      <c r="R75" s="19"/>
+      <c r="S75" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="T75" s="7" t="s">
+      <c r="T75" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="U75" s="8"/>
-      <c r="V75" s="7" t="s">
+      <c r="U75" s="7"/>
+      <c r="V75" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="W75" s="7" t="s">
+      <c r="W75" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5966,18 +5953,18 @@
       <c r="K76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R76" s="21"/>
-      <c r="S76" s="7" t="s">
+      <c r="R76" s="19"/>
+      <c r="S76" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="T76" s="7" t="s">
+      <c r="T76" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="U76" s="8"/>
-      <c r="V76" s="7" t="s">
+      <c r="U76" s="7"/>
+      <c r="V76" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="W76" s="7" t="s">
+      <c r="W76" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5995,18 +5982,18 @@
       <c r="K77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R77" s="21"/>
-      <c r="S77" s="7" t="s">
+      <c r="R77" s="19"/>
+      <c r="S77" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="T77" s="7" t="s">
+      <c r="T77" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="U77" s="8"/>
-      <c r="V77" s="7" t="s">
+      <c r="U77" s="7"/>
+      <c r="V77" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="W77" s="7" t="s">
+      <c r="W77" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6024,18 +6011,18 @@
       <c r="K78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R78" s="21"/>
-      <c r="S78" s="7" t="s">
+      <c r="R78" s="19"/>
+      <c r="S78" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="T78" s="7" t="s">
+      <c r="T78" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="U78" s="8"/>
-      <c r="V78" s="7" t="s">
+      <c r="U78" s="7"/>
+      <c r="V78" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="W78" s="7" t="s">
+      <c r="W78" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6053,18 +6040,18 @@
       <c r="K79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R79" s="21"/>
-      <c r="S79" s="7" t="s">
+      <c r="R79" s="19"/>
+      <c r="S79" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="T79" s="7" t="s">
+      <c r="T79" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="U79" s="8"/>
-      <c r="V79" s="7" t="s">
+      <c r="U79" s="7"/>
+      <c r="V79" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="W79" s="7" t="s">
+      <c r="W79" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6082,18 +6069,18 @@
       <c r="K80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R80" s="21"/>
-      <c r="S80" s="7" t="s">
+      <c r="R80" s="19"/>
+      <c r="S80" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="T80" s="7" t="s">
+      <c r="T80" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="U80" s="8"/>
-      <c r="V80" s="7" t="s">
+      <c r="U80" s="7"/>
+      <c r="V80" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="W80" s="7" t="s">
+      <c r="W80" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6111,18 +6098,18 @@
       <c r="K81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R81" s="21"/>
-      <c r="S81" s="7" t="s">
+      <c r="R81" s="19"/>
+      <c r="S81" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="T81" s="7" t="s">
+      <c r="T81" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="U81" s="8"/>
-      <c r="V81" s="7" t="s">
+      <c r="U81" s="7"/>
+      <c r="V81" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="W81" s="7" t="s">
+      <c r="W81" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6140,18 +6127,18 @@
       <c r="K82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R82" s="21"/>
-      <c r="S82" s="7" t="s">
+      <c r="R82" s="19"/>
+      <c r="S82" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="T82" s="7" t="s">
+      <c r="T82" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="U82" s="8"/>
-      <c r="V82" s="7" t="s">
+      <c r="U82" s="7"/>
+      <c r="V82" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="W82" s="7" t="s">
+      <c r="W82" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6169,18 +6156,18 @@
       <c r="K83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R83" s="21"/>
-      <c r="S83" s="7" t="s">
+      <c r="R83" s="19"/>
+      <c r="S83" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="T83" s="7" t="s">
+      <c r="T83" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="U83" s="8"/>
-      <c r="V83" s="7" t="s">
+      <c r="U83" s="7"/>
+      <c r="V83" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="W83" s="7" t="s">
+      <c r="W83" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6198,18 +6185,18 @@
       <c r="K84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R84" s="21"/>
-      <c r="S84" s="7" t="s">
+      <c r="R84" s="19"/>
+      <c r="S84" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="T84" s="7" t="s">
+      <c r="T84" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="U84" s="8"/>
-      <c r="V84" s="7" t="s">
+      <c r="U84" s="7"/>
+      <c r="V84" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="W84" s="7" t="s">
+      <c r="W84" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6227,18 +6214,18 @@
       <c r="K85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R85" s="21"/>
-      <c r="S85" s="7" t="s">
+      <c r="R85" s="19"/>
+      <c r="S85" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="T85" s="7" t="s">
+      <c r="T85" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="U85" s="8"/>
-      <c r="V85" s="7" t="s">
+      <c r="U85" s="7"/>
+      <c r="V85" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="W85" s="7" t="s">
+      <c r="W85" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6256,98 +6243,98 @@
       <c r="K86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R86" s="21"/>
-      <c r="S86" s="7" t="s">
+      <c r="R86" s="19"/>
+      <c r="S86" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="T86" s="7" t="s">
+      <c r="T86" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="U86" s="8"/>
-      <c r="V86" s="7" t="s">
+      <c r="U86" s="7"/>
+      <c r="V86" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="W86" s="7" t="s">
+      <c r="W86" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R87" s="21"/>
-      <c r="S87" s="7" t="s">
+      <c r="R87" s="19"/>
+      <c r="S87" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="T87" s="7" t="s">
+      <c r="T87" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="U87" s="8"/>
-      <c r="V87" s="7" t="s">
+      <c r="U87" s="7"/>
+      <c r="V87" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="W87" s="7" t="s">
+      <c r="W87" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R88" s="21"/>
-      <c r="S88" s="7" t="s">
+      <c r="R88" s="19"/>
+      <c r="S88" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="T88" s="7" t="s">
+      <c r="T88" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="U88" s="8"/>
-      <c r="V88" s="7" t="s">
+      <c r="U88" s="7"/>
+      <c r="V88" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="W88" s="7" t="s">
+      <c r="W88" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R89" s="21"/>
-      <c r="S89" s="7" t="s">
+      <c r="R89" s="19"/>
+      <c r="S89" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="T89" s="7" t="s">
+      <c r="T89" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="U89" s="8"/>
-      <c r="V89" s="7" t="s">
+      <c r="U89" s="7"/>
+      <c r="V89" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="W89" s="7" t="s">
+      <c r="W89" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R90" s="21"/>
-      <c r="S90" s="7" t="s">
+      <c r="R90" s="19"/>
+      <c r="S90" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="T90" s="7" t="s">
+      <c r="T90" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="U90" s="8"/>
-      <c r="V90" s="7" t="s">
+      <c r="U90" s="7"/>
+      <c r="V90" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="W90" s="7" t="s">
+      <c r="W90" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R91" s="21"/>
-      <c r="S91" s="7" t="s">
+      <c r="R91" s="19"/>
+      <c r="S91" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="T91" s="7" t="s">
+      <c r="T91" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="U91" s="8"/>
-      <c r="V91" s="7" t="s">
+      <c r="U91" s="7"/>
+      <c r="V91" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="W91" s="7" t="s">
+      <c r="W91" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6358,178 +6345,178 @@
       <c r="J92">
         <v>40</v>
       </c>
-      <c r="R92" s="21"/>
-      <c r="S92" s="7" t="s">
+      <c r="R92" s="19"/>
+      <c r="S92" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="T92" s="7" t="s">
+      <c r="T92" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="U92" s="8"/>
-      <c r="V92" s="7" t="s">
+      <c r="U92" s="7"/>
+      <c r="V92" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="W92" s="7" t="s">
+      <c r="W92" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R93" s="21"/>
-      <c r="S93" s="7" t="s">
+      <c r="R93" s="19"/>
+      <c r="S93" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="T93" s="7" t="s">
+      <c r="T93" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="U93" s="8"/>
-      <c r="V93" s="7" t="s">
+      <c r="U93" s="7"/>
+      <c r="V93" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="W93" s="7" t="s">
+      <c r="W93" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R94" s="21"/>
-      <c r="S94" s="7" t="s">
+      <c r="R94" s="19"/>
+      <c r="S94" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="T94" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U94" s="8"/>
-      <c r="V94" s="7" t="s">
+      <c r="T94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U94" s="7"/>
+      <c r="V94" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="W94" s="7" t="s">
+      <c r="W94" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R95" s="21"/>
-      <c r="S95" s="7" t="s">
+      <c r="R95" s="19"/>
+      <c r="S95" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="T95" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U95" s="8"/>
-      <c r="V95" s="7" t="s">
+      <c r="T95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U95" s="7"/>
+      <c r="V95" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="W95" s="7" t="s">
+      <c r="W95" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R96" s="21"/>
-      <c r="S96" s="7" t="s">
+      <c r="R96" s="19"/>
+      <c r="S96" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="T96" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U96" s="8"/>
-      <c r="V96" s="7" t="s">
+      <c r="T96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U96" s="7"/>
+      <c r="V96" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="W96" s="7" t="s">
+      <c r="W96" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R97" s="21"/>
-      <c r="S97" s="7" t="s">
+      <c r="R97" s="19"/>
+      <c r="S97" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="T97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U97" s="8"/>
-      <c r="V97" s="7" t="s">
+      <c r="T97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U97" s="7"/>
+      <c r="V97" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="W97" s="7" t="s">
+      <c r="W97" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R98" s="21"/>
-      <c r="S98" s="7" t="s">
+      <c r="R98" s="19"/>
+      <c r="S98" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="T98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U98" s="8"/>
-      <c r="V98" s="7" t="s">
+      <c r="T98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U98" s="7"/>
+      <c r="V98" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="W98" s="7" t="s">
+      <c r="W98" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R99" s="21"/>
-      <c r="S99" s="7" t="s">
+      <c r="R99" s="19"/>
+      <c r="S99" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="T99" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U99" s="8"/>
-      <c r="V99" s="7" t="s">
+      <c r="T99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U99" s="7"/>
+      <c r="V99" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="W99" s="7" t="s">
+      <c r="W99" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R100" s="21"/>
-      <c r="S100" s="7" t="s">
+      <c r="R100" s="19"/>
+      <c r="S100" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="T100" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U100" s="8"/>
-      <c r="V100" s="7" t="s">
+      <c r="T100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U100" s="7"/>
+      <c r="V100" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="W100" s="7" t="s">
+      <c r="W100" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R101" s="21"/>
-      <c r="S101" s="7" t="s">
+      <c r="R101" s="19"/>
+      <c r="S101" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="T101" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U101" s="8"/>
-      <c r="V101" s="7" t="s">
+      <c r="T101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U101" s="7"/>
+      <c r="V101" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="W101" s="7" t="s">
+      <c r="W101" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R102" s="21"/>
-      <c r="S102" s="7" t="s">
+      <c r="R102" s="19"/>
+      <c r="S102" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="T102" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U102" s="8"/>
-      <c r="V102" s="7" t="s">
+      <c r="T102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U102" s="7"/>
+      <c r="V102" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="W102" s="7" t="s">
+      <c r="W102" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6537,12 +6524,12 @@
       <c r="X104" t="s">
         <v>601</v>
       </c>
-      <c r="Y104" s="9" t="s">
+      <c r="Y104" s="8" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="105" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="X105" s="9" t="s">
+      <c r="X105" s="8" t="s">
         <v>602</v>
       </c>
       <c r="Y105" t="s">
@@ -6550,17 +6537,17 @@
       </c>
     </row>
     <row r="106" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="S106" s="8" t="s">
+      <c r="S106" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="T106" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U106" s="8"/>
-      <c r="V106" s="8" t="s">
+      <c r="T106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="W106" s="7" t="s">
+      <c r="W106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="X106" t="s">
@@ -6571,237 +6558,232 @@
       </c>
     </row>
     <row r="107" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="S107" s="8" t="s">
+      <c r="S107" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="T107" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U107" s="8"/>
-      <c r="V107" s="8" t="s">
+      <c r="T107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="W107" s="7" t="s">
+      <c r="W107" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="108" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="S108" s="8" t="s">
+      <c r="S108" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="T108" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U108" s="8"/>
-      <c r="V108" s="8" t="s">
+      <c r="T108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="W108" s="7" t="s">
+      <c r="W108" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="109" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="S109" s="8" t="s">
+      <c r="S109" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="T109" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8" t="s">
+      <c r="T109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="W109" s="7" t="s">
+      <c r="W109" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="S110" s="8" t="s">
+      <c r="S110" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="T110" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8" t="s">
+      <c r="T110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="W110" s="7" t="s">
+      <c r="W110" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="S111" s="8" t="s">
+      <c r="S111" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="T111" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8" t="s">
+      <c r="T111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="W111" s="7" t="s">
+      <c r="W111" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="S112" s="8" t="s">
+      <c r="S112" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="T112" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8" t="s">
+      <c r="T112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="W112" s="7" t="s">
+      <c r="W112" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S113" s="8" t="s">
+      <c r="S113" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="T113" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8" t="s">
+      <c r="T113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="W113" s="7" t="s">
+      <c r="W113" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S114" s="8" t="s">
+      <c r="S114" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="T114" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8" t="s">
+      <c r="T114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="W114" s="7" t="s">
+      <c r="W114" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S115" s="8" t="s">
+      <c r="S115" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="T115" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8" t="s">
+      <c r="T115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="W115" s="7" t="s">
+      <c r="W115" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="116" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S116" s="8" t="s">
+      <c r="S116" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="T116" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8" t="s">
+      <c r="T116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="W116" s="7" t="s">
+      <c r="W116" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="117" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S117" s="8" t="s">
+      <c r="S117" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="T117" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8" t="s">
+      <c r="T117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="W117" s="7" t="s">
+      <c r="W117" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="118" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S118" s="8" t="s">
+      <c r="S118" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="T118" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8" t="s">
+      <c r="T118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="W118" s="7" t="s">
+      <c r="W118" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="119" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S119" s="8" t="s">
+      <c r="S119" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="T119" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8" t="s">
+      <c r="T119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="W119" s="7" t="s">
+      <c r="W119" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S120" s="8" t="s">
+      <c r="S120" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="T120" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8" t="s">
+      <c r="T120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="W120" s="7" t="s">
+      <c r="W120" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="19:23" x14ac:dyDescent="0.15">
-      <c r="S121" s="8" t="s">
+      <c r="S121" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="T121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="U121" s="8"/>
-      <c r="V121" s="8" t="s">
+      <c r="T121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="W121" s="7" t="s">
+      <c r="W121" s="6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="S20:W20"/>
@@ -6809,6 +6791,11 @@
     <mergeCell ref="T39:T54"/>
     <mergeCell ref="W39:W54"/>
     <mergeCell ref="R39:R102"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6861,25 +6848,25 @@
       <c r="A2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>224</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="I2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="16">
         <v>224</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="16"/>
       <c r="M2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="16">
         <v>222</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -6921,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <f>SUM(B4:B11)</f>
         <v>8</v>
       </c>
@@ -6931,7 +6918,7 @@
       <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="16">
         <f>SUM(J4:J17)</f>
         <v>17</v>
       </c>
@@ -6941,7 +6928,7 @@
       <c r="N4" s="1">
         <v>4</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="16">
         <f>SUM(N4:N17)</f>
         <v>14</v>
       </c>
@@ -6954,21 +6941,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16"/>
       <c r="I5" s="1" t="s">
         <v>644</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="16"/>
       <c r="M5" s="1" t="s">
         <v>644</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -6978,21 +6965,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="16"/>
       <c r="I6" s="1" t="s">
         <v>646</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="16"/>
       <c r="M6" s="1" t="s">
         <v>646</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="18"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -7002,21 +6989,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="16"/>
       <c r="I7" s="1" t="s">
         <v>647</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="16"/>
       <c r="M7" s="1" t="s">
         <v>647</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="18"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -7026,21 +7013,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="16"/>
       <c r="I8" s="1" t="s">
         <v>650</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="18"/>
+      <c r="K8" s="16"/>
       <c r="M8" s="1" t="s">
         <v>650</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="18"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -7050,21 +7037,21 @@
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="16"/>
       <c r="I9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="18"/>
+      <c r="K9" s="16"/>
       <c r="M9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="18"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -7074,21 +7061,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="16"/>
       <c r="I10" s="1" t="s">
         <v>654</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="16"/>
       <c r="M10" s="1" t="s">
         <v>654</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="18"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -7098,21 +7085,21 @@
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="16"/>
       <c r="I11" s="1" t="s">
         <v>656</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="18"/>
+      <c r="K11" s="16"/>
       <c r="M11" s="1" t="s">
         <v>656</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="18"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I12" s="1" t="s">
@@ -7121,14 +7108,14 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="16"/>
       <c r="M12" s="1" t="s">
         <v>657</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="18"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I13" s="1" t="s">
@@ -7137,38 +7124,38 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="16"/>
       <c r="M13" s="1" t="s">
         <v>659</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="18"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="16">
         <v>223</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="I14" s="1" t="s">
         <v>660</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="16"/>
       <c r="M14" s="1" t="s">
         <v>661</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="18"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -7189,10 +7176,10 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="16"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="18"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -7202,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <f>SUM(B16:B27)</f>
         <v>12</v>
       </c>
@@ -7212,10 +7199,10 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="18"/>
+      <c r="K16" s="16"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="18"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -7225,17 +7212,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="22"/>
       <c r="I17" s="1" t="s">
         <v>664</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="16"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="18"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -7245,17 +7232,17 @@
         <v>1</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="24"/>
-      <c r="I18" s="22" t="s">
+      <c r="D18" s="22"/>
+      <c r="I18" s="20" t="s">
         <v>665</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="M18" s="22" t="s">
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="M18" s="20" t="s">
         <v>665</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -7265,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -7275,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="22"/>
       <c r="I20" s="1" t="s">
         <v>637</v>
       </c>
@@ -7294,14 +7281,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="24"/>
+      <c r="D21" s="22"/>
       <c r="I21" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="16">
         <v>223</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -7311,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="24"/>
+      <c r="D22" s="22"/>
       <c r="I22" s="1" t="s">
         <v>640</v>
       </c>
@@ -7330,14 +7317,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="24"/>
+      <c r="D23" s="22"/>
       <c r="I23" s="1" t="s">
         <v>645</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="16">
         <f>SUM(J23:J37)</f>
         <v>16</v>
       </c>
@@ -7350,14 +7337,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="22"/>
       <c r="I24" s="1" t="s">
         <v>644</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -7367,14 +7354,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="24"/>
+      <c r="D25" s="22"/>
       <c r="I25" s="1" t="s">
         <v>646</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -7384,27 +7371,27 @@
         <v>1</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="24"/>
+      <c r="D26" s="22"/>
       <c r="I26" s="1" t="s">
         <v>647</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>691</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="22"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I28" s="1" t="s">
@@ -7413,24 +7400,24 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>222</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="I29" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -7451,7 +7438,7 @@
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -7461,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="18">
+      <c r="D31" s="16">
         <f>SUM(B31:B40)</f>
         <v>10</v>
       </c>
@@ -7471,7 +7458,7 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -7481,14 +7468,14 @@
         <v>1</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="18"/>
+      <c r="D32" s="16"/>
       <c r="I32" s="1" t="s">
         <v>657</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -7498,14 +7485,14 @@
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="16"/>
       <c r="I33" s="1" t="s">
         <v>669</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="18"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
@@ -7515,14 +7502,14 @@
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="16"/>
       <c r="I34" s="1" t="s">
         <v>663</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="18"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -7532,14 +7519,14 @@
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="16"/>
       <c r="I35" s="1" t="s">
         <v>670</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="K35" s="18"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -7549,14 +7536,14 @@
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="18"/>
+      <c r="D36" s="16"/>
       <c r="I36" s="1" t="s">
         <v>671</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="18"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -7566,10 +7553,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="16"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="18"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -7579,12 +7566,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="18"/>
-      <c r="I38" s="22" t="s">
+      <c r="D38" s="16"/>
+      <c r="I38" s="20" t="s">
         <v>665</v>
       </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -7594,12 +7581,12 @@
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="18"/>
-      <c r="I39" s="22" t="s">
+      <c r="D39" s="16"/>
+      <c r="I39" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -7609,10 +7596,17 @@
         <v>1</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="18"/>
+      <c r="D40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="K4:K17"/>
+    <mergeCell ref="K23:K37"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="N2:O2"/>
@@ -7622,13 +7616,6 @@
     <mergeCell ref="O4:O17"/>
     <mergeCell ref="D16:D27"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="K4:K17"/>
-    <mergeCell ref="K23:K37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IO表（2R,2Y,2Z,X）.xlsx
+++ b/IO表（2R,2Y,2Z,X）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD9248-B91A-487E-8D1F-DE1EF93CEA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4EFE08-801E-4AAE-8C30-F8DA93102FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="3675" windowWidth="21600" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="724">
   <si>
     <t>输入输出模块</t>
   </si>
@@ -2211,6 +2211,30 @@
   </si>
   <si>
     <t>智云客户产品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>油位压力开关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全门锁2对应的传感器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全门锁3对应的传感器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全门锁4对应的传感器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>示教器上手自动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前有空调信号</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2218,7 +2242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2328,8 +2352,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2366,8 +2399,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2454,6 +2493,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2472,7 +2522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2521,6 +2571,21 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2542,11 +2607,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2821,13 +2889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="3.75" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
@@ -2849,41 +2917,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="S1" s="17" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="S1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="Y1" s="17" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="Y1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -2995,8 +3063,8 @@
       <c r="S3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>9</v>
+      <c r="T3" s="14" t="s">
+        <v>692</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6" t="s">
@@ -3419,7 +3487,9 @@
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="19" t="s">
+        <v>719</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="12" t="s">
         <v>708</v>
@@ -3482,7 +3552,7 @@
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="17" t="s">
         <v>695</v>
       </c>
       <c r="C11" s="1"/>
@@ -3547,7 +3617,7 @@
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="17" t="s">
         <v>696</v>
       </c>
       <c r="C12" s="1"/>
@@ -3584,7 +3654,7 @@
       <c r="S12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="20" t="s">
         <v>114</v>
       </c>
       <c r="U12" s="6"/>
@@ -3612,7 +3682,7 @@
       <c r="A13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="17" t="s">
         <v>697</v>
       </c>
       <c r="C13" s="1"/>
@@ -3649,7 +3719,7 @@
       <c r="S13" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="20" t="s">
         <v>126</v>
       </c>
       <c r="U13" s="6"/>
@@ -3677,7 +3747,7 @@
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="17" t="s">
         <v>698</v>
       </c>
       <c r="C14" s="1"/>
@@ -3742,7 +3812,7 @@
       <c r="A15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="17" t="s">
         <v>699</v>
       </c>
       <c r="C15" s="1"/>
@@ -3807,7 +3877,7 @@
       <c r="A16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="17" t="s">
         <v>700</v>
       </c>
       <c r="C16" s="1"/>
@@ -3862,16 +3932,20 @@
       <c r="AB16" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AC16" s="23" t="s">
+      <c r="AC16" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>723</v>
+      </c>
       <c r="D17" s="12" t="s">
         <v>715</v>
       </c>
@@ -3905,8 +3979,8 @@
       <c r="S17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="T17" s="14" t="s">
-        <v>692</v>
+      <c r="T17" s="28" t="s">
+        <v>722</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6" t="s">
@@ -3933,7 +4007,9 @@
       <c r="A18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="19" t="s">
+        <v>721</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="12" t="s">
         <v>716</v>
@@ -3968,8 +4044,8 @@
       <c r="S18" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="T18" s="6" t="s">
-        <v>7</v>
+      <c r="T18" s="18" t="s">
+        <v>718</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6" t="s">
@@ -3993,34 +4069,34 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="M20" s="16" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="S20" s="17" t="s">
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="S20" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="Y20" s="17" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="Y20" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G21" s="1" t="s">
@@ -4954,19 +5030,19 @@
       <c r="K39" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="R39" s="19" t="s">
+      <c r="R39" s="24" t="s">
         <v>717</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T39" s="18" t="s">
+      <c r="T39" s="23" t="s">
         <v>348</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="W39" s="18" t="s">
+      <c r="W39" s="23" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4984,15 +5060,15 @@
       <c r="K40" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R40" s="19"/>
+      <c r="R40" s="24"/>
       <c r="S40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T40" s="18"/>
+      <c r="T40" s="23"/>
       <c r="V40" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="W40" s="18"/>
+      <c r="W40" s="23"/>
     </row>
     <row r="41" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G41" s="1" t="s">
@@ -5008,15 +5084,15 @@
       <c r="K41" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="R41" s="19"/>
+      <c r="R41" s="24"/>
       <c r="S41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T41" s="18"/>
+      <c r="T41" s="23"/>
       <c r="V41" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="W41" s="18"/>
+      <c r="W41" s="23"/>
     </row>
     <row r="42" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G42" s="1" t="s">
@@ -5032,15 +5108,15 @@
       <c r="K42" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="R42" s="19"/>
+      <c r="R42" s="24"/>
       <c r="S42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="18"/>
+      <c r="T42" s="23"/>
       <c r="V42" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W42" s="18"/>
+      <c r="W42" s="23"/>
     </row>
     <row r="43" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
@@ -5056,15 +5132,15 @@
       <c r="K43" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="R43" s="19"/>
+      <c r="R43" s="24"/>
       <c r="S43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T43" s="18"/>
+      <c r="T43" s="23"/>
       <c r="V43" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="W43" s="18"/>
+      <c r="W43" s="23"/>
     </row>
     <row r="44" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G44" s="1" t="s">
@@ -5080,15 +5156,15 @@
       <c r="K44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R44" s="19"/>
+      <c r="R44" s="24"/>
       <c r="S44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T44" s="18"/>
+      <c r="T44" s="23"/>
       <c r="V44" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="W44" s="18"/>
+      <c r="W44" s="23"/>
     </row>
     <row r="45" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G45" s="1" t="s">
@@ -5104,15 +5180,15 @@
       <c r="K45" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="R45" s="19"/>
+      <c r="R45" s="24"/>
       <c r="S45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T45" s="18"/>
+      <c r="T45" s="23"/>
       <c r="V45" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="W45" s="18"/>
+      <c r="W45" s="23"/>
     </row>
     <row r="46" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G46" s="1" t="s">
@@ -5128,15 +5204,15 @@
       <c r="K46" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="R46" s="19"/>
+      <c r="R46" s="24"/>
       <c r="S46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T46" s="18"/>
+      <c r="T46" s="23"/>
       <c r="V46" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="W46" s="18"/>
+      <c r="W46" s="23"/>
     </row>
     <row r="47" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G47" s="1" t="s">
@@ -5152,15 +5228,15 @@
       <c r="K47" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R47" s="19"/>
+      <c r="R47" s="24"/>
       <c r="S47" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="T47" s="18"/>
+      <c r="T47" s="23"/>
       <c r="V47" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="W47" s="18"/>
+      <c r="W47" s="23"/>
     </row>
     <row r="48" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G48" s="1" t="s">
@@ -5176,15 +5252,15 @@
       <c r="K48" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="R48" s="19"/>
+      <c r="R48" s="24"/>
       <c r="S48" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="T48" s="18"/>
+      <c r="T48" s="23"/>
       <c r="V48" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="W48" s="18"/>
+      <c r="W48" s="23"/>
     </row>
     <row r="49" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G49" s="1" t="s">
@@ -5200,15 +5276,15 @@
       <c r="K49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="R49" s="19"/>
+      <c r="R49" s="24"/>
       <c r="S49" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="T49" s="18"/>
+      <c r="T49" s="23"/>
       <c r="V49" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="W49" s="18"/>
+      <c r="W49" s="23"/>
     </row>
     <row r="50" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G50" s="1" t="s">
@@ -5224,15 +5300,15 @@
       <c r="K50" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="R50" s="19"/>
+      <c r="R50" s="24"/>
       <c r="S50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="T50" s="18"/>
+      <c r="T50" s="23"/>
       <c r="V50" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="W50" s="18"/>
+      <c r="W50" s="23"/>
     </row>
     <row r="51" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G51" s="1" t="s">
@@ -5248,15 +5324,15 @@
       <c r="K51" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="R51" s="19"/>
+      <c r="R51" s="24"/>
       <c r="S51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="T51" s="18"/>
+      <c r="T51" s="23"/>
       <c r="V51" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="W51" s="18"/>
+      <c r="W51" s="23"/>
     </row>
     <row r="52" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G52" s="1" t="s">
@@ -5272,15 +5348,15 @@
       <c r="K52" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="R52" s="19"/>
+      <c r="R52" s="24"/>
       <c r="S52" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="T52" s="18"/>
+      <c r="T52" s="23"/>
       <c r="V52" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="W52" s="18"/>
+      <c r="W52" s="23"/>
     </row>
     <row r="53" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G53" s="1" t="s">
@@ -5296,15 +5372,15 @@
       <c r="K53" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="R53" s="19"/>
+      <c r="R53" s="24"/>
       <c r="S53" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="T53" s="18"/>
+      <c r="T53" s="23"/>
       <c r="V53" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="W53" s="18"/>
+      <c r="W53" s="23"/>
     </row>
     <row r="54" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G54" s="1" t="s">
@@ -5320,15 +5396,15 @@
       <c r="K54" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="R54" s="19"/>
+      <c r="R54" s="24"/>
       <c r="S54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="T54" s="18"/>
+      <c r="T54" s="23"/>
       <c r="V54" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="W54" s="18"/>
+      <c r="W54" s="23"/>
     </row>
     <row r="55" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G55" s="1" t="s">
@@ -5344,7 +5420,7 @@
       <c r="K55" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="R55" s="19"/>
+      <c r="R55" s="24"/>
       <c r="S55" s="6" t="s">
         <v>421</v>
       </c>
@@ -5373,7 +5449,7 @@
       <c r="K56" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="R56" s="19"/>
+      <c r="R56" s="24"/>
       <c r="S56" s="6" t="s">
         <v>426</v>
       </c>
@@ -5402,7 +5478,7 @@
       <c r="K57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R57" s="19"/>
+      <c r="R57" s="24"/>
       <c r="S57" s="6" t="s">
         <v>431</v>
       </c>
@@ -5431,7 +5507,7 @@
       <c r="K58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R58" s="19"/>
+      <c r="R58" s="24"/>
       <c r="S58" s="6" t="s">
         <v>436</v>
       </c>
@@ -5460,7 +5536,7 @@
       <c r="K59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R59" s="19"/>
+      <c r="R59" s="24"/>
       <c r="S59" s="6" t="s">
         <v>441</v>
       </c>
@@ -5489,7 +5565,7 @@
       <c r="K60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R60" s="19"/>
+      <c r="R60" s="24"/>
       <c r="S60" s="6" t="s">
         <v>446</v>
       </c>
@@ -5518,7 +5594,7 @@
       <c r="K61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R61" s="19"/>
+      <c r="R61" s="24"/>
       <c r="S61" s="6" t="s">
         <v>451</v>
       </c>
@@ -5547,7 +5623,7 @@
       <c r="K62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R62" s="19"/>
+      <c r="R62" s="24"/>
       <c r="S62" s="6" t="s">
         <v>456</v>
       </c>
@@ -5576,7 +5652,7 @@
       <c r="K63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R63" s="19"/>
+      <c r="R63" s="24"/>
       <c r="S63" s="6" t="s">
         <v>461</v>
       </c>
@@ -5605,7 +5681,7 @@
       <c r="K64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R64" s="19"/>
+      <c r="R64" s="24"/>
       <c r="S64" s="6" t="s">
         <v>466</v>
       </c>
@@ -5634,7 +5710,7 @@
       <c r="K65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R65" s="19"/>
+      <c r="R65" s="24"/>
       <c r="S65" s="6" t="s">
         <v>471</v>
       </c>
@@ -5663,7 +5739,7 @@
       <c r="K66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R66" s="19"/>
+      <c r="R66" s="24"/>
       <c r="S66" s="6" t="s">
         <v>476</v>
       </c>
@@ -5692,7 +5768,7 @@
       <c r="K67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R67" s="19"/>
+      <c r="R67" s="24"/>
       <c r="S67" s="6" t="s">
         <v>481</v>
       </c>
@@ -5721,7 +5797,7 @@
       <c r="K68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R68" s="19"/>
+      <c r="R68" s="24"/>
       <c r="S68" s="6" t="s">
         <v>486</v>
       </c>
@@ -5750,7 +5826,7 @@
       <c r="K69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R69" s="19"/>
+      <c r="R69" s="24"/>
       <c r="S69" s="6" t="s">
         <v>491</v>
       </c>
@@ -5779,7 +5855,7 @@
       <c r="K70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R70" s="19"/>
+      <c r="R70" s="24"/>
       <c r="S70" s="6" t="s">
         <v>496</v>
       </c>
@@ -5808,7 +5884,7 @@
       <c r="K71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R71" s="19"/>
+      <c r="R71" s="24"/>
       <c r="S71" s="6" t="s">
         <v>501</v>
       </c>
@@ -5837,7 +5913,7 @@
       <c r="K72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R72" s="19"/>
+      <c r="R72" s="24"/>
       <c r="S72" s="6" t="s">
         <v>506</v>
       </c>
@@ -5866,7 +5942,7 @@
       <c r="K73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R73" s="19"/>
+      <c r="R73" s="24"/>
       <c r="S73" s="6" t="s">
         <v>511</v>
       </c>
@@ -5895,7 +5971,7 @@
       <c r="K74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R74" s="19"/>
+      <c r="R74" s="24"/>
       <c r="S74" s="6" t="s">
         <v>516</v>
       </c>
@@ -5924,7 +6000,7 @@
       <c r="K75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R75" s="19"/>
+      <c r="R75" s="24"/>
       <c r="S75" s="6" t="s">
         <v>521</v>
       </c>
@@ -5953,7 +6029,7 @@
       <c r="K76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R76" s="19"/>
+      <c r="R76" s="24"/>
       <c r="S76" s="6" t="s">
         <v>526</v>
       </c>
@@ -5982,7 +6058,7 @@
       <c r="K77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R77" s="19"/>
+      <c r="R77" s="24"/>
       <c r="S77" s="6" t="s">
         <v>531</v>
       </c>
@@ -6011,7 +6087,7 @@
       <c r="K78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R78" s="19"/>
+      <c r="R78" s="24"/>
       <c r="S78" s="6" t="s">
         <v>535</v>
       </c>
@@ -6040,7 +6116,7 @@
       <c r="K79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R79" s="19"/>
+      <c r="R79" s="24"/>
       <c r="S79" s="6" t="s">
         <v>539</v>
       </c>
@@ -6069,7 +6145,7 @@
       <c r="K80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R80" s="19"/>
+      <c r="R80" s="24"/>
       <c r="S80" s="6" t="s">
         <v>543</v>
       </c>
@@ -6098,7 +6174,7 @@
       <c r="K81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R81" s="19"/>
+      <c r="R81" s="24"/>
       <c r="S81" s="6" t="s">
         <v>547</v>
       </c>
@@ -6127,7 +6203,7 @@
       <c r="K82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R82" s="19"/>
+      <c r="R82" s="24"/>
       <c r="S82" s="6" t="s">
         <v>551</v>
       </c>
@@ -6156,7 +6232,7 @@
       <c r="K83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R83" s="19"/>
+      <c r="R83" s="24"/>
       <c r="S83" s="6" t="s">
         <v>555</v>
       </c>
@@ -6185,7 +6261,7 @@
       <c r="K84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R84" s="19"/>
+      <c r="R84" s="24"/>
       <c r="S84" s="6" t="s">
         <v>559</v>
       </c>
@@ -6214,7 +6290,7 @@
       <c r="K85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R85" s="19"/>
+      <c r="R85" s="24"/>
       <c r="S85" s="6" t="s">
         <v>563</v>
       </c>
@@ -6243,7 +6319,7 @@
       <c r="K86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R86" s="19"/>
+      <c r="R86" s="24"/>
       <c r="S86" s="6" t="s">
         <v>567</v>
       </c>
@@ -6259,7 +6335,7 @@
       </c>
     </row>
     <row r="87" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R87" s="19"/>
+      <c r="R87" s="24"/>
       <c r="S87" s="6" t="s">
         <v>569</v>
       </c>
@@ -6275,7 +6351,7 @@
       </c>
     </row>
     <row r="88" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R88" s="19"/>
+      <c r="R88" s="24"/>
       <c r="S88" s="6" t="s">
         <v>571</v>
       </c>
@@ -6291,7 +6367,7 @@
       </c>
     </row>
     <row r="89" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R89" s="19"/>
+      <c r="R89" s="24"/>
       <c r="S89" s="6" t="s">
         <v>573</v>
       </c>
@@ -6307,7 +6383,7 @@
       </c>
     </row>
     <row r="90" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R90" s="19"/>
+      <c r="R90" s="24"/>
       <c r="S90" s="6" t="s">
         <v>575</v>
       </c>
@@ -6323,7 +6399,7 @@
       </c>
     </row>
     <row r="91" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R91" s="19"/>
+      <c r="R91" s="24"/>
       <c r="S91" s="6" t="s">
         <v>577</v>
       </c>
@@ -6345,7 +6421,7 @@
       <c r="J92">
         <v>40</v>
       </c>
-      <c r="R92" s="19"/>
+      <c r="R92" s="24"/>
       <c r="S92" s="6" t="s">
         <v>579</v>
       </c>
@@ -6361,7 +6437,7 @@
       </c>
     </row>
     <row r="93" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R93" s="19"/>
+      <c r="R93" s="24"/>
       <c r="S93" s="6" t="s">
         <v>581</v>
       </c>
@@ -6377,7 +6453,7 @@
       </c>
     </row>
     <row r="94" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R94" s="19"/>
+      <c r="R94" s="24"/>
       <c r="S94" s="6" t="s">
         <v>583</v>
       </c>
@@ -6393,7 +6469,7 @@
       </c>
     </row>
     <row r="95" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R95" s="19"/>
+      <c r="R95" s="24"/>
       <c r="S95" s="6" t="s">
         <v>585</v>
       </c>
@@ -6409,7 +6485,7 @@
       </c>
     </row>
     <row r="96" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R96" s="19"/>
+      <c r="R96" s="24"/>
       <c r="S96" s="6" t="s">
         <v>587</v>
       </c>
@@ -6425,7 +6501,7 @@
       </c>
     </row>
     <row r="97" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R97" s="19"/>
+      <c r="R97" s="24"/>
       <c r="S97" s="6" t="s">
         <v>589</v>
       </c>
@@ -6441,7 +6517,7 @@
       </c>
     </row>
     <row r="98" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R98" s="19"/>
+      <c r="R98" s="24"/>
       <c r="S98" s="6" t="s">
         <v>591</v>
       </c>
@@ -6457,7 +6533,7 @@
       </c>
     </row>
     <row r="99" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R99" s="19"/>
+      <c r="R99" s="24"/>
       <c r="S99" s="6" t="s">
         <v>593</v>
       </c>
@@ -6473,7 +6549,7 @@
       </c>
     </row>
     <row r="100" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R100" s="19"/>
+      <c r="R100" s="24"/>
       <c r="S100" s="6" t="s">
         <v>595</v>
       </c>
@@ -6489,7 +6565,7 @@
       </c>
     </row>
     <row r="101" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R101" s="19"/>
+      <c r="R101" s="24"/>
       <c r="S101" s="6" t="s">
         <v>597</v>
       </c>
@@ -6505,7 +6581,7 @@
       </c>
     </row>
     <row r="102" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R102" s="19"/>
+      <c r="R102" s="24"/>
       <c r="S102" s="6" t="s">
         <v>599</v>
       </c>
@@ -6848,25 +6924,25 @@
       <c r="A2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="21">
         <v>224</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="I2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="21">
         <v>224</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="21"/>
       <c r="M2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="21">
         <v>222</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -6908,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="16">
+      <c r="D4" s="21">
         <f>SUM(B4:B11)</f>
         <v>8</v>
       </c>
@@ -6918,7 +6994,7 @@
       <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="21">
         <f>SUM(J4:J17)</f>
         <v>17</v>
       </c>
@@ -6928,7 +7004,7 @@
       <c r="N4" s="1">
         <v>4</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="21">
         <f>SUM(N4:N17)</f>
         <v>14</v>
       </c>
@@ -6941,21 +7017,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="21"/>
       <c r="I5" s="1" t="s">
         <v>644</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="21"/>
       <c r="M5" s="1" t="s">
         <v>644</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="16"/>
+      <c r="O5" s="21"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -6965,21 +7041,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="21"/>
       <c r="I6" s="1" t="s">
         <v>646</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="21"/>
       <c r="M6" s="1" t="s">
         <v>646</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="16"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -6989,21 +7065,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="21"/>
       <c r="I7" s="1" t="s">
         <v>647</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="21"/>
       <c r="M7" s="1" t="s">
         <v>647</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="21"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -7013,21 +7089,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="21"/>
       <c r="I8" s="1" t="s">
         <v>650</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="21"/>
       <c r="M8" s="1" t="s">
         <v>650</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -7037,21 +7113,21 @@
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="21"/>
       <c r="I9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="21"/>
       <c r="M9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -7061,21 +7137,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="21"/>
       <c r="I10" s="1" t="s">
         <v>654</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="21"/>
       <c r="M10" s="1" t="s">
         <v>654</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="16"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -7085,21 +7161,21 @@
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="21"/>
       <c r="I11" s="1" t="s">
         <v>656</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="21"/>
       <c r="M11" s="1" t="s">
         <v>656</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="16"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I12" s="1" t="s">
@@ -7108,14 +7184,14 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="21"/>
       <c r="M12" s="1" t="s">
         <v>657</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="16"/>
+      <c r="O12" s="21"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I13" s="1" t="s">
@@ -7124,38 +7200,38 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="21"/>
       <c r="M13" s="1" t="s">
         <v>659</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="16"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="21">
         <v>223</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="I14" s="1" t="s">
         <v>660</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="21"/>
       <c r="M14" s="1" t="s">
         <v>661</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="16"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -7176,10 +7252,10 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="21"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="16"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -7189,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="21">
+      <c r="D16" s="26">
         <f>SUM(B16:B27)</f>
         <v>12</v>
       </c>
@@ -7199,10 +7275,10 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="K16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="16"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -7212,17 +7288,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="22"/>
+      <c r="D17" s="27"/>
       <c r="I17" s="1" t="s">
         <v>664</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="21"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="16"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -7232,17 +7308,17 @@
         <v>1</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="22"/>
-      <c r="I18" s="20" t="s">
+      <c r="D18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="M18" s="20" t="s">
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="M18" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -7252,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="22"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -7262,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="22"/>
+      <c r="D20" s="27"/>
       <c r="I20" s="1" t="s">
         <v>637</v>
       </c>
@@ -7281,14 +7357,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="22"/>
+      <c r="D21" s="27"/>
       <c r="I21" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="21">
         <v>223</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -7298,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="27"/>
       <c r="I22" s="1" t="s">
         <v>640</v>
       </c>
@@ -7317,14 +7393,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="22"/>
+      <c r="D23" s="27"/>
       <c r="I23" s="1" t="s">
         <v>645</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="21">
         <f>SUM(J23:J37)</f>
         <v>16</v>
       </c>
@@ -7337,14 +7413,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="27"/>
       <c r="I24" s="1" t="s">
         <v>644</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -7354,14 +7430,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="22"/>
+      <c r="D25" s="27"/>
       <c r="I25" s="1" t="s">
         <v>646</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="16"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -7371,14 +7447,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="27"/>
       <c r="I26" s="1" t="s">
         <v>647</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="16"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
@@ -7388,10 +7464,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="27"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I28" s="1" t="s">
@@ -7400,24 +7476,24 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="16"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="21">
         <v>222</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="I29" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="16"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -7438,7 +7514,7 @@
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="16"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -7448,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="16">
+      <c r="D31" s="21">
         <f>SUM(B31:B40)</f>
         <v>10</v>
       </c>
@@ -7458,7 +7534,7 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="16"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -7468,14 +7544,14 @@
         <v>1</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="16"/>
+      <c r="D32" s="21"/>
       <c r="I32" s="1" t="s">
         <v>657</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="16"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -7485,14 +7561,14 @@
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="21"/>
       <c r="I33" s="1" t="s">
         <v>669</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
@@ -7502,14 +7578,14 @@
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
+      <c r="D34" s="21"/>
       <c r="I34" s="1" t="s">
         <v>663</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="16"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -7519,14 +7595,14 @@
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="16"/>
+      <c r="D35" s="21"/>
       <c r="I35" s="1" t="s">
         <v>670</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="K35" s="16"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -7536,14 +7612,14 @@
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="21"/>
       <c r="I36" s="1" t="s">
         <v>671</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -7553,10 +7629,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="21"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="16"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -7566,12 +7642,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="16"/>
-      <c r="I38" s="20" t="s">
+      <c r="D38" s="21"/>
+      <c r="I38" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -7581,12 +7657,12 @@
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="16"/>
-      <c r="I39" s="20" t="s">
+      <c r="D39" s="21"/>
+      <c r="I39" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -7596,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/IO表（2R,2Y,2Z,X）.xlsx
+++ b/IO表（2R,2Y,2Z,X）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4EFE08-801E-4AAE-8C30-F8DA93102FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5178C-751C-4311-912B-7EAB660CF1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="3675" windowWidth="21600" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="1500" windowWidth="11220" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -2586,6 +2586,15 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2606,15 +2615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2890,7 +2890,7 @@
   <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2898,15 +2898,15 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="3.75" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20.625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="3.375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="18" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="20.625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="4.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="21.25" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="18.375" customWidth="1"/>
     <col min="21" max="21" width="4.5" customWidth="1"/>
@@ -2917,41 +2917,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="S1" s="22" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="S1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="Y1" s="22" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="Y1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3940,10 +3940,10 @@
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="23" t="s">
         <v>723</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -3979,7 +3979,7 @@
       <c r="S17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="T17" s="28" t="s">
+      <c r="T17" s="21" t="s">
         <v>722</v>
       </c>
       <c r="U17" s="6"/>
@@ -4069,34 +4069,34 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="M20" s="21" t="s">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="M20" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="S20" s="22" t="s">
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="S20" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="Y20" s="22" t="s">
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="Y20" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G21" s="1" t="s">
@@ -5030,19 +5030,19 @@
       <c r="K39" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="R39" s="24" t="s">
+      <c r="R39" s="27" t="s">
         <v>717</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T39" s="23" t="s">
+      <c r="T39" s="26" t="s">
         <v>348</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="W39" s="23" t="s">
+      <c r="W39" s="26" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5060,15 +5060,15 @@
       <c r="K40" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R40" s="24"/>
+      <c r="R40" s="27"/>
       <c r="S40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T40" s="23"/>
+      <c r="T40" s="26"/>
       <c r="V40" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="W40" s="23"/>
+      <c r="W40" s="26"/>
     </row>
     <row r="41" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G41" s="1" t="s">
@@ -5084,15 +5084,15 @@
       <c r="K41" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="R41" s="24"/>
+      <c r="R41" s="27"/>
       <c r="S41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T41" s="23"/>
+      <c r="T41" s="26"/>
       <c r="V41" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="W41" s="23"/>
+      <c r="W41" s="26"/>
     </row>
     <row r="42" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G42" s="1" t="s">
@@ -5108,15 +5108,15 @@
       <c r="K42" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="R42" s="24"/>
+      <c r="R42" s="27"/>
       <c r="S42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T42" s="23"/>
+      <c r="T42" s="26"/>
       <c r="V42" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W42" s="23"/>
+      <c r="W42" s="26"/>
     </row>
     <row r="43" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
@@ -5132,15 +5132,15 @@
       <c r="K43" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="R43" s="24"/>
+      <c r="R43" s="27"/>
       <c r="S43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T43" s="23"/>
+      <c r="T43" s="26"/>
       <c r="V43" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="W43" s="23"/>
+      <c r="W43" s="26"/>
     </row>
     <row r="44" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G44" s="1" t="s">
@@ -5156,15 +5156,15 @@
       <c r="K44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R44" s="24"/>
+      <c r="R44" s="27"/>
       <c r="S44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T44" s="23"/>
+      <c r="T44" s="26"/>
       <c r="V44" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="W44" s="23"/>
+      <c r="W44" s="26"/>
     </row>
     <row r="45" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G45" s="1" t="s">
@@ -5180,15 +5180,15 @@
       <c r="K45" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="R45" s="24"/>
+      <c r="R45" s="27"/>
       <c r="S45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T45" s="23"/>
+      <c r="T45" s="26"/>
       <c r="V45" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="W45" s="23"/>
+      <c r="W45" s="26"/>
     </row>
     <row r="46" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G46" s="1" t="s">
@@ -5204,15 +5204,15 @@
       <c r="K46" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="R46" s="24"/>
+      <c r="R46" s="27"/>
       <c r="S46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T46" s="23"/>
+      <c r="T46" s="26"/>
       <c r="V46" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="W46" s="23"/>
+      <c r="W46" s="26"/>
     </row>
     <row r="47" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G47" s="1" t="s">
@@ -5228,15 +5228,15 @@
       <c r="K47" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="R47" s="24"/>
+      <c r="R47" s="27"/>
       <c r="S47" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="T47" s="23"/>
+      <c r="T47" s="26"/>
       <c r="V47" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="W47" s="23"/>
+      <c r="W47" s="26"/>
     </row>
     <row r="48" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G48" s="1" t="s">
@@ -5252,15 +5252,15 @@
       <c r="K48" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="R48" s="24"/>
+      <c r="R48" s="27"/>
       <c r="S48" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="T48" s="23"/>
+      <c r="T48" s="26"/>
       <c r="V48" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="W48" s="23"/>
+      <c r="W48" s="26"/>
     </row>
     <row r="49" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G49" s="1" t="s">
@@ -5276,15 +5276,15 @@
       <c r="K49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="R49" s="24"/>
+      <c r="R49" s="27"/>
       <c r="S49" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="T49" s="23"/>
+      <c r="T49" s="26"/>
       <c r="V49" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="W49" s="23"/>
+      <c r="W49" s="26"/>
     </row>
     <row r="50" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G50" s="1" t="s">
@@ -5300,15 +5300,15 @@
       <c r="K50" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="R50" s="24"/>
+      <c r="R50" s="27"/>
       <c r="S50" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="T50" s="23"/>
+      <c r="T50" s="26"/>
       <c r="V50" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="W50" s="23"/>
+      <c r="W50" s="26"/>
     </row>
     <row r="51" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G51" s="1" t="s">
@@ -5324,15 +5324,15 @@
       <c r="K51" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="R51" s="24"/>
+      <c r="R51" s="27"/>
       <c r="S51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="T51" s="23"/>
+      <c r="T51" s="26"/>
       <c r="V51" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="W51" s="23"/>
+      <c r="W51" s="26"/>
     </row>
     <row r="52" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G52" s="1" t="s">
@@ -5348,15 +5348,15 @@
       <c r="K52" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="R52" s="24"/>
+      <c r="R52" s="27"/>
       <c r="S52" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="T52" s="23"/>
+      <c r="T52" s="26"/>
       <c r="V52" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="W52" s="23"/>
+      <c r="W52" s="26"/>
     </row>
     <row r="53" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G53" s="1" t="s">
@@ -5372,15 +5372,15 @@
       <c r="K53" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="R53" s="24"/>
+      <c r="R53" s="27"/>
       <c r="S53" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="T53" s="23"/>
+      <c r="T53" s="26"/>
       <c r="V53" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="W53" s="23"/>
+      <c r="W53" s="26"/>
     </row>
     <row r="54" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G54" s="1" t="s">
@@ -5396,15 +5396,15 @@
       <c r="K54" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="R54" s="24"/>
+      <c r="R54" s="27"/>
       <c r="S54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="T54" s="23"/>
+      <c r="T54" s="26"/>
       <c r="V54" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="W54" s="23"/>
+      <c r="W54" s="26"/>
     </row>
     <row r="55" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G55" s="1" t="s">
@@ -5420,7 +5420,7 @@
       <c r="K55" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="R55" s="24"/>
+      <c r="R55" s="27"/>
       <c r="S55" s="6" t="s">
         <v>421</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="K56" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="R56" s="24"/>
+      <c r="R56" s="27"/>
       <c r="S56" s="6" t="s">
         <v>426</v>
       </c>
@@ -5478,7 +5478,7 @@
       <c r="K57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R57" s="24"/>
+      <c r="R57" s="27"/>
       <c r="S57" s="6" t="s">
         <v>431</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="K58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R58" s="24"/>
+      <c r="R58" s="27"/>
       <c r="S58" s="6" t="s">
         <v>436</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="K59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R59" s="24"/>
+      <c r="R59" s="27"/>
       <c r="S59" s="6" t="s">
         <v>441</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="K60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R60" s="24"/>
+      <c r="R60" s="27"/>
       <c r="S60" s="6" t="s">
         <v>446</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="K61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R61" s="24"/>
+      <c r="R61" s="27"/>
       <c r="S61" s="6" t="s">
         <v>451</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="K62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R62" s="24"/>
+      <c r="R62" s="27"/>
       <c r="S62" s="6" t="s">
         <v>456</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="K63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R63" s="24"/>
+      <c r="R63" s="27"/>
       <c r="S63" s="6" t="s">
         <v>461</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="K64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R64" s="24"/>
+      <c r="R64" s="27"/>
       <c r="S64" s="6" t="s">
         <v>466</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="K65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R65" s="24"/>
+      <c r="R65" s="27"/>
       <c r="S65" s="6" t="s">
         <v>471</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="K66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R66" s="24"/>
+      <c r="R66" s="27"/>
       <c r="S66" s="6" t="s">
         <v>476</v>
       </c>
@@ -5768,7 +5768,7 @@
       <c r="K67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R67" s="24"/>
+      <c r="R67" s="27"/>
       <c r="S67" s="6" t="s">
         <v>481</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="K68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R68" s="24"/>
+      <c r="R68" s="27"/>
       <c r="S68" s="6" t="s">
         <v>486</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="K69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R69" s="24"/>
+      <c r="R69" s="27"/>
       <c r="S69" s="6" t="s">
         <v>491</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="K70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R70" s="24"/>
+      <c r="R70" s="27"/>
       <c r="S70" s="6" t="s">
         <v>496</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="K71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R71" s="24"/>
+      <c r="R71" s="27"/>
       <c r="S71" s="6" t="s">
         <v>501</v>
       </c>
@@ -5913,7 +5913,7 @@
       <c r="K72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R72" s="24"/>
+      <c r="R72" s="27"/>
       <c r="S72" s="6" t="s">
         <v>506</v>
       </c>
@@ -5942,7 +5942,7 @@
       <c r="K73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R73" s="24"/>
+      <c r="R73" s="27"/>
       <c r="S73" s="6" t="s">
         <v>511</v>
       </c>
@@ -5971,7 +5971,7 @@
       <c r="K74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R74" s="24"/>
+      <c r="R74" s="27"/>
       <c r="S74" s="6" t="s">
         <v>516</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="K75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R75" s="24"/>
+      <c r="R75" s="27"/>
       <c r="S75" s="6" t="s">
         <v>521</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="K76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R76" s="24"/>
+      <c r="R76" s="27"/>
       <c r="S76" s="6" t="s">
         <v>526</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="K77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R77" s="24"/>
+      <c r="R77" s="27"/>
       <c r="S77" s="6" t="s">
         <v>531</v>
       </c>
@@ -6087,7 +6087,7 @@
       <c r="K78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R78" s="24"/>
+      <c r="R78" s="27"/>
       <c r="S78" s="6" t="s">
         <v>535</v>
       </c>
@@ -6116,7 +6116,7 @@
       <c r="K79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R79" s="24"/>
+      <c r="R79" s="27"/>
       <c r="S79" s="6" t="s">
         <v>539</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="K80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R80" s="24"/>
+      <c r="R80" s="27"/>
       <c r="S80" s="6" t="s">
         <v>543</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="K81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R81" s="24"/>
+      <c r="R81" s="27"/>
       <c r="S81" s="6" t="s">
         <v>547</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="K82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R82" s="24"/>
+      <c r="R82" s="27"/>
       <c r="S82" s="6" t="s">
         <v>551</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="K83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R83" s="24"/>
+      <c r="R83" s="27"/>
       <c r="S83" s="6" t="s">
         <v>555</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="K84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R84" s="24"/>
+      <c r="R84" s="27"/>
       <c r="S84" s="6" t="s">
         <v>559</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="K85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R85" s="24"/>
+      <c r="R85" s="27"/>
       <c r="S85" s="6" t="s">
         <v>563</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="K86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R86" s="24"/>
+      <c r="R86" s="27"/>
       <c r="S86" s="6" t="s">
         <v>567</v>
       </c>
@@ -6335,7 +6335,7 @@
       </c>
     </row>
     <row r="87" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R87" s="24"/>
+      <c r="R87" s="27"/>
       <c r="S87" s="6" t="s">
         <v>569</v>
       </c>
@@ -6351,7 +6351,7 @@
       </c>
     </row>
     <row r="88" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R88" s="24"/>
+      <c r="R88" s="27"/>
       <c r="S88" s="6" t="s">
         <v>571</v>
       </c>
@@ -6367,7 +6367,7 @@
       </c>
     </row>
     <row r="89" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R89" s="24"/>
+      <c r="R89" s="27"/>
       <c r="S89" s="6" t="s">
         <v>573</v>
       </c>
@@ -6383,7 +6383,7 @@
       </c>
     </row>
     <row r="90" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R90" s="24"/>
+      <c r="R90" s="27"/>
       <c r="S90" s="6" t="s">
         <v>575</v>
       </c>
@@ -6399,7 +6399,7 @@
       </c>
     </row>
     <row r="91" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R91" s="24"/>
+      <c r="R91" s="27"/>
       <c r="S91" s="6" t="s">
         <v>577</v>
       </c>
@@ -6421,7 +6421,7 @@
       <c r="J92">
         <v>40</v>
       </c>
-      <c r="R92" s="24"/>
+      <c r="R92" s="27"/>
       <c r="S92" s="6" t="s">
         <v>579</v>
       </c>
@@ -6437,7 +6437,7 @@
       </c>
     </row>
     <row r="93" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R93" s="24"/>
+      <c r="R93" s="27"/>
       <c r="S93" s="6" t="s">
         <v>581</v>
       </c>
@@ -6453,7 +6453,7 @@
       </c>
     </row>
     <row r="94" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R94" s="24"/>
+      <c r="R94" s="27"/>
       <c r="S94" s="6" t="s">
         <v>583</v>
       </c>
@@ -6469,7 +6469,7 @@
       </c>
     </row>
     <row r="95" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R95" s="24"/>
+      <c r="R95" s="27"/>
       <c r="S95" s="6" t="s">
         <v>585</v>
       </c>
@@ -6485,7 +6485,7 @@
       </c>
     </row>
     <row r="96" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R96" s="24"/>
+      <c r="R96" s="27"/>
       <c r="S96" s="6" t="s">
         <v>587</v>
       </c>
@@ -6501,7 +6501,7 @@
       </c>
     </row>
     <row r="97" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R97" s="24"/>
+      <c r="R97" s="27"/>
       <c r="S97" s="6" t="s">
         <v>589</v>
       </c>
@@ -6517,7 +6517,7 @@
       </c>
     </row>
     <row r="98" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R98" s="24"/>
+      <c r="R98" s="27"/>
       <c r="S98" s="6" t="s">
         <v>591</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
     </row>
     <row r="99" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R99" s="24"/>
+      <c r="R99" s="27"/>
       <c r="S99" s="6" t="s">
         <v>593</v>
       </c>
@@ -6549,7 +6549,7 @@
       </c>
     </row>
     <row r="100" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R100" s="24"/>
+      <c r="R100" s="27"/>
       <c r="S100" s="6" t="s">
         <v>595</v>
       </c>
@@ -6565,7 +6565,7 @@
       </c>
     </row>
     <row r="101" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R101" s="24"/>
+      <c r="R101" s="27"/>
       <c r="S101" s="6" t="s">
         <v>597</v>
       </c>
@@ -6581,7 +6581,7 @@
       </c>
     </row>
     <row r="102" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R102" s="24"/>
+      <c r="R102" s="27"/>
       <c r="S102" s="6" t="s">
         <v>599</v>
       </c>
@@ -6860,6 +6860,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="S20:W20"/>
@@ -6867,11 +6872,6 @@
     <mergeCell ref="T39:T54"/>
     <mergeCell ref="W39:W54"/>
     <mergeCell ref="R39:R102"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6924,25 +6924,25 @@
       <c r="A2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="24">
         <v>224</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="I2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="24">
         <v>224</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="24"/>
       <c r="M2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="24">
         <v>222</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="21">
+      <c r="D4" s="24">
         <f>SUM(B4:B11)</f>
         <v>8</v>
       </c>
@@ -6994,7 +6994,7 @@
       <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="24">
         <f>SUM(J4:J17)</f>
         <v>17</v>
       </c>
@@ -7004,7 +7004,7 @@
       <c r="N4" s="1">
         <v>4</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="24">
         <f>SUM(N4:N17)</f>
         <v>14</v>
       </c>
@@ -7017,21 +7017,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="24"/>
       <c r="I5" s="1" t="s">
         <v>644</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="24"/>
       <c r="M5" s="1" t="s">
         <v>644</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -7041,21 +7041,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="24"/>
       <c r="I6" s="1" t="s">
         <v>646</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="24"/>
       <c r="M6" s="1" t="s">
         <v>646</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -7065,21 +7065,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="24"/>
       <c r="I7" s="1" t="s">
         <v>647</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="24"/>
       <c r="M7" s="1" t="s">
         <v>647</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -7089,21 +7089,21 @@
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="24"/>
       <c r="I8" s="1" t="s">
         <v>650</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="24"/>
       <c r="M8" s="1" t="s">
         <v>650</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -7113,21 +7113,21 @@
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="24"/>
       <c r="I9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="24"/>
       <c r="M9" s="1" t="s">
         <v>652</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="21"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -7137,21 +7137,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="24"/>
       <c r="I10" s="1" t="s">
         <v>654</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="K10" s="24"/>
       <c r="M10" s="1" t="s">
         <v>654</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="21"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -7161,21 +7161,21 @@
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="24"/>
       <c r="I11" s="1" t="s">
         <v>656</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="24"/>
       <c r="M11" s="1" t="s">
         <v>656</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="21"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I12" s="1" t="s">
@@ -7184,14 +7184,14 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="24"/>
       <c r="M12" s="1" t="s">
         <v>657</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="21"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I13" s="1" t="s">
@@ -7200,38 +7200,38 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="24"/>
       <c r="M13" s="1" t="s">
         <v>659</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="21"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="24">
         <v>223</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="I14" s="1" t="s">
         <v>660</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="24"/>
       <c r="M14" s="1" t="s">
         <v>661</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="21"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -7252,10 +7252,10 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" s="24"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="21"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="26">
+      <c r="D16" s="29">
         <f>SUM(B16:B27)</f>
         <v>12</v>
       </c>
@@ -7275,10 +7275,10 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="21"/>
+      <c r="K16" s="24"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="21"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -7288,17 +7288,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="30"/>
       <c r="I17" s="1" t="s">
         <v>664</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="24"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="21"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -7308,17 +7308,17 @@
         <v>1</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="27"/>
-      <c r="I18" s="25" t="s">
+      <c r="D18" s="30"/>
+      <c r="I18" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="M18" s="25" t="s">
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="M18" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -7328,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="27"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -7338,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="27"/>
+      <c r="D20" s="30"/>
       <c r="I20" s="1" t="s">
         <v>637</v>
       </c>
@@ -7357,14 +7357,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="30"/>
       <c r="I21" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="24">
         <v>223</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -7374,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="27"/>
+      <c r="D22" s="30"/>
       <c r="I22" s="1" t="s">
         <v>640</v>
       </c>
@@ -7393,14 +7393,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="27"/>
+      <c r="D23" s="30"/>
       <c r="I23" s="1" t="s">
         <v>645</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="24">
         <f>SUM(J23:J37)</f>
         <v>16</v>
       </c>
@@ -7413,14 +7413,14 @@
         <v>1</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="27"/>
+      <c r="D24" s="30"/>
       <c r="I24" s="1" t="s">
         <v>644</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -7430,14 +7430,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="27"/>
+      <c r="D25" s="30"/>
       <c r="I25" s="1" t="s">
         <v>646</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -7447,14 +7447,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="27"/>
+      <c r="D26" s="30"/>
       <c r="I26" s="1" t="s">
         <v>647</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
@@ -7464,10 +7464,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="27"/>
+      <c r="D27" s="30"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="21"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I28" s="1" t="s">
@@ -7476,24 +7476,24 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="24">
         <v>222</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="I29" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -7514,7 +7514,7 @@
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="21"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="21">
+      <c r="D31" s="24">
         <f>SUM(B31:B40)</f>
         <v>10</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -7544,14 +7544,14 @@
         <v>1</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="24"/>
       <c r="I32" s="1" t="s">
         <v>657</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="21"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -7561,14 +7561,14 @@
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="24"/>
       <c r="I33" s="1" t="s">
         <v>669</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="21"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
@@ -7578,14 +7578,14 @@
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="24"/>
       <c r="I34" s="1" t="s">
         <v>663</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="21"/>
+      <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -7595,14 +7595,14 @@
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="21"/>
+      <c r="D35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>670</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -7612,14 +7612,14 @@
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="21"/>
+      <c r="D36" s="24"/>
       <c r="I36" s="1" t="s">
         <v>671</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="21"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -7629,10 +7629,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="24"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -7642,12 +7642,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="21"/>
-      <c r="I38" s="25" t="s">
+      <c r="D38" s="24"/>
+      <c r="I38" s="28" t="s">
         <v>665</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -7657,12 +7657,12 @@
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="21"/>
-      <c r="I39" s="25" t="s">
+      <c r="D39" s="24"/>
+      <c r="I39" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -7672,17 +7672,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="21"/>
+      <c r="D40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="K4:K17"/>
-    <mergeCell ref="K23:K37"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="N2:O2"/>
@@ -7692,6 +7685,13 @@
     <mergeCell ref="O4:O17"/>
     <mergeCell ref="D16:D27"/>
     <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="K4:K17"/>
+    <mergeCell ref="K23:K37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IO表（2R,2Y,2Z,X）.xlsx
+++ b/IO表（2R,2Y,2Z,X）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5178C-751C-4311-912B-7EAB660CF1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3BCD1C-1D0E-4ECA-BE3F-832B986580E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1500" windowWidth="11220" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="6090" windowWidth="11220" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="723">
   <si>
     <t>输入输出模块</t>
   </si>
@@ -117,9 +117,6 @@
     <t>X2</t>
   </si>
   <si>
-    <t>门锁信号1</t>
-  </si>
-  <si>
     <t>门锁锁定</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>X3</t>
-  </si>
-  <si>
-    <t>门锁信号2</t>
   </si>
   <si>
     <t>安全回路复位</t>
@@ -2234,7 +2228,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>目前有空调信号</t>
+    <t>门锁信号1 插销</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁信号2 缩紧</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2242,7 +2240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2356,6 +2354,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2522,7 +2529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2589,11 +2596,14 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2890,7 +2900,7 @@
   <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2917,41 +2927,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="S1" s="25" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="S1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="Y1" s="25" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="Y1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -3029,7 +3039,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -3064,7 +3074,7 @@
         <v>8</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6" t="s">
@@ -3077,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6" t="s">
@@ -3096,7 +3106,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -3144,7 +3154,7 @@
         <v>28</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6" t="s">
@@ -3158,64 +3168,64 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
+      <c r="B5" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
         <v>33</v>
-      </c>
-      <c r="T5" t="s">
-        <v>34</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="Z5" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>7</v>
@@ -3223,66 +3233,66 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>722</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>7</v>
@@ -3290,64 +3300,64 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>7</v>
@@ -3355,64 +3365,64 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>7</v>
@@ -3420,64 +3430,64 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>7</v>
@@ -3485,64 +3495,64 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>7</v>
@@ -3550,64 +3560,64 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="12" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>7</v>
@@ -3615,389 +3625,387 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="12" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="T12" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z12" t="s">
         <v>116</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>118</v>
       </c>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="S13" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="T13" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z13" t="s">
         <v>128</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>130</v>
       </c>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="T14" s="13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z14" t="s">
         <v>139</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>141</v>
       </c>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="S15" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="T15" s="13" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z15" t="s">
         <v>150</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>152</v>
       </c>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="12" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="T16" s="13" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z16" s="15"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC16" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="94.5" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>720</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>723</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="C17" s="22"/>
       <c r="D17" s="12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Z17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>7</v>
@@ -4005,98 +4013,98 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Z18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="G20" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="M20" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="AC18" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G20" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="M20" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="S20" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="Y20" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="S20" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="Y20" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G21" s="1" t="s">
@@ -4154,53 +4162,53 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G22" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>7</v>
@@ -4208,53 +4216,53 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G23" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>7</v>
@@ -4262,107 +4270,108 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G24" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="D25" s="24"/>
+      <c r="G25" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="G25" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>7</v>
@@ -4370,53 +4379,53 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G26" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>7</v>
@@ -4424,53 +4433,53 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G27" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y27" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z27" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>7</v>
@@ -4478,269 +4487,269 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G28" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="S28" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="T28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="W28" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z28" t="s">
         <v>252</v>
-      </c>
-      <c r="Y28" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>254</v>
       </c>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G29" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="S29" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="T29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="W29" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z29" t="s">
         <v>264</v>
-      </c>
-      <c r="Y29" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>266</v>
       </c>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G30" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N30" t="s">
         <v>275</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N30" t="s">
-        <v>277</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S30" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="S30" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="T30" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W30" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G31" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="S31" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="S31" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="T31" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Z31" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G32" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="T32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="W32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>7</v>
@@ -4748,53 +4757,53 @@
     </row>
     <row r="33" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G33" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y33" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Z33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>7</v>
@@ -4802,53 +4811,53 @@
     </row>
     <row r="34" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G34" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="W34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>7</v>
@@ -4856,53 +4865,53 @@
     </row>
     <row r="35" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G35" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y35" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Z35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AC35" s="6" t="s">
         <v>7</v>
@@ -4910,53 +4919,53 @@
     </row>
     <row r="36" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G36" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="W36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Z36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>7</v>
@@ -4964,53 +4973,53 @@
     </row>
     <row r="37" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G37" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y37" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Z37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>7</v>
@@ -5018,940 +5027,940 @@
     </row>
     <row r="39" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G39" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="R39" s="27" t="s">
-        <v>717</v>
+        <v>344</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>715</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T39" s="26" t="s">
-        <v>348</v>
+      <c r="T39" s="27" t="s">
+        <v>346</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="W39" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="W39" s="27" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G40" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="R40" s="27"/>
+        <v>349</v>
+      </c>
+      <c r="R40" s="28"/>
       <c r="S40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T40" s="26"/>
+      <c r="T40" s="27"/>
       <c r="V40" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="W40" s="26"/>
+        <v>351</v>
+      </c>
+      <c r="W40" s="27"/>
     </row>
     <row r="41" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G41" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K41" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="R41" s="28"/>
+      <c r="S41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T41" s="27"/>
+      <c r="V41" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="R41" s="27"/>
-      <c r="S41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T41" s="26"/>
-      <c r="V41" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="W41" s="26"/>
+      <c r="W41" s="27"/>
     </row>
     <row r="42" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G42" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R42" s="28"/>
+      <c r="S42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T42" s="27"/>
+      <c r="V42" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="R42" s="27"/>
-      <c r="S42" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T42" s="26"/>
-      <c r="V42" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="W42" s="26"/>
+      <c r="W42" s="27"/>
     </row>
     <row r="43" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G43" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="R43" s="28"/>
+      <c r="S43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T43" s="27"/>
+      <c r="V43" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="R43" s="27"/>
-      <c r="S43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T43" s="26"/>
-      <c r="V43" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="W43" s="26"/>
+      <c r="W43" s="27"/>
     </row>
     <row r="44" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G44" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R44" s="28"/>
+      <c r="S44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T44" s="27"/>
+      <c r="V44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="R44" s="27"/>
-      <c r="S44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T44" s="26"/>
-      <c r="V44" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="W44" s="26"/>
+      <c r="W44" s="27"/>
     </row>
     <row r="45" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G45" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="R45" s="28"/>
+      <c r="S45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T45" s="27"/>
+      <c r="V45" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="R45" s="27"/>
-      <c r="S45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T45" s="26"/>
-      <c r="V45" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="W45" s="26"/>
+      <c r="W45" s="27"/>
     </row>
     <row r="46" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G46" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K46" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R46" s="28"/>
+      <c r="S46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T46" s="27"/>
+      <c r="V46" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="R46" s="27"/>
-      <c r="S46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T46" s="26"/>
-      <c r="V46" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="W46" s="26"/>
+      <c r="W46" s="27"/>
     </row>
     <row r="47" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G47" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R47" s="28"/>
+      <c r="S47" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="T47" s="27"/>
+      <c r="V47" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="R47" s="27"/>
-      <c r="S47" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="T47" s="26"/>
-      <c r="V47" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="W47" s="26"/>
+      <c r="W47" s="27"/>
     </row>
     <row r="48" spans="7:29" x14ac:dyDescent="0.15">
       <c r="G48" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="R48" s="28"/>
+      <c r="S48" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="T48" s="27"/>
+      <c r="V48" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="R48" s="27"/>
-      <c r="S48" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="T48" s="26"/>
-      <c r="V48" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="W48" s="26"/>
+      <c r="W48" s="27"/>
     </row>
     <row r="49" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G49" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="R49" s="28"/>
+      <c r="S49" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="T49" s="27"/>
+      <c r="V49" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="R49" s="27"/>
-      <c r="S49" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="T49" s="26"/>
-      <c r="V49" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="W49" s="26"/>
+      <c r="W49" s="27"/>
     </row>
     <row r="50" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G50" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="R50" s="28"/>
+      <c r="S50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="T50" s="27"/>
+      <c r="V50" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="R50" s="27"/>
-      <c r="S50" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="T50" s="26"/>
-      <c r="V50" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="W50" s="26"/>
+      <c r="W50" s="27"/>
     </row>
     <row r="51" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G51" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="R51" s="28"/>
+      <c r="S51" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="T51" s="27"/>
+      <c r="V51" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="R51" s="27"/>
-      <c r="S51" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="T51" s="26"/>
-      <c r="V51" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="W51" s="26"/>
+      <c r="W51" s="27"/>
     </row>
     <row r="52" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G52" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="R52" s="28"/>
+      <c r="S52" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="T52" s="27"/>
+      <c r="V52" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="R52" s="27"/>
-      <c r="S52" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="T52" s="26"/>
-      <c r="V52" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="W52" s="26"/>
+      <c r="W52" s="27"/>
     </row>
     <row r="53" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G53" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="R53" s="28"/>
+      <c r="S53" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="T53" s="27"/>
+      <c r="V53" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="R53" s="27"/>
-      <c r="S53" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="T53" s="26"/>
-      <c r="V53" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="W53" s="26"/>
+      <c r="W53" s="27"/>
     </row>
     <row r="54" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G54" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="R54" s="28"/>
+      <c r="S54" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T54" s="27"/>
+      <c r="V54" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="R54" s="27"/>
-      <c r="S54" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="T54" s="26"/>
-      <c r="V54" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="W54" s="26"/>
+      <c r="W54" s="27"/>
     </row>
     <row r="55" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G55" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K55" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="R55" s="28"/>
+      <c r="S55" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="R55" s="27"/>
-      <c r="S55" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="T55" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U55" s="7"/>
       <c r="V55" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="W55" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G56" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K56" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R56" s="28"/>
+      <c r="S56" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="R56" s="27"/>
-      <c r="S56" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="T56" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="U56" s="7"/>
       <c r="V56" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="W56" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G57" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R57" s="27"/>
+      <c r="R57" s="28"/>
       <c r="S57" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W57" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G58" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R58" s="27"/>
+      <c r="R58" s="28"/>
       <c r="S58" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U58" s="7"/>
       <c r="V58" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W58" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G59" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R59" s="27"/>
+      <c r="R59" s="28"/>
       <c r="S59" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U59" s="7"/>
       <c r="V59" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W59" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G60" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R60" s="27"/>
+      <c r="R60" s="28"/>
       <c r="S60" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U60" s="7"/>
       <c r="V60" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W60" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G61" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R61" s="27"/>
+      <c r="R61" s="28"/>
       <c r="S61" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="U61" s="7"/>
       <c r="V61" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="W61" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G62" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R62" s="27"/>
+      <c r="R62" s="28"/>
       <c r="S62" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="U62" s="7"/>
       <c r="V62" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="W62" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G63" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R63" s="27"/>
+      <c r="R63" s="28"/>
       <c r="S63" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="U63" s="7"/>
       <c r="V63" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="W63" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G64" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R64" s="27"/>
+      <c r="R64" s="28"/>
       <c r="S64" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U64" s="7"/>
       <c r="V64" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="W64" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G65" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R65" s="27"/>
+      <c r="R65" s="28"/>
       <c r="S65" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U65" s="7"/>
       <c r="V65" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="W65" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G66" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R66" s="27"/>
+      <c r="R66" s="28"/>
       <c r="S66" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="U66" s="7"/>
       <c r="V66" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="W66" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G67" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R67" s="27"/>
+      <c r="R67" s="28"/>
       <c r="S67" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U67" s="7"/>
       <c r="V67" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="W67" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G68" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R68" s="27"/>
+      <c r="R68" s="28"/>
       <c r="S68" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="U68" s="7"/>
       <c r="V68" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="W68" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G69" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R69" s="27"/>
+      <c r="R69" s="28"/>
       <c r="S69" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U69" s="7"/>
       <c r="V69" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="W69" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G70" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R70" s="27"/>
+      <c r="R70" s="28"/>
       <c r="S70" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U70" s="7"/>
       <c r="V70" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="W70" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G71" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R71" s="27"/>
+      <c r="R71" s="28"/>
       <c r="S71" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U71" s="7"/>
       <c r="V71" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="W71" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G72" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R72" s="27"/>
+      <c r="R72" s="28"/>
       <c r="S72" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U72" s="7"/>
       <c r="V72" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W72" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G73" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R73" s="27"/>
+      <c r="R73" s="28"/>
       <c r="S73" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="U73" s="7"/>
       <c r="V73" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W73" s="6" t="s">
         <v>7</v>
@@ -5959,28 +5968,28 @@
     </row>
     <row r="74" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G74" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R74" s="27"/>
+      <c r="R74" s="28"/>
       <c r="S74" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U74" s="7"/>
       <c r="V74" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="W74" s="6" t="s">
         <v>7</v>
@@ -5988,28 +5997,28 @@
     </row>
     <row r="75" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G75" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R75" s="27"/>
+      <c r="R75" s="28"/>
       <c r="S75" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U75" s="7"/>
       <c r="V75" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W75" s="6" t="s">
         <v>7</v>
@@ -6017,28 +6026,28 @@
     </row>
     <row r="76" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G76" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R76" s="27"/>
+      <c r="R76" s="28"/>
       <c r="S76" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U76" s="7"/>
       <c r="V76" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="W76" s="6" t="s">
         <v>7</v>
@@ -6046,28 +6055,28 @@
     </row>
     <row r="77" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G77" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R77" s="27"/>
+      <c r="R77" s="28"/>
       <c r="S77" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U77" s="7"/>
       <c r="V77" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W77" s="6" t="s">
         <v>7</v>
@@ -6075,28 +6084,28 @@
     </row>
     <row r="78" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G78" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R78" s="27"/>
+      <c r="R78" s="28"/>
       <c r="S78" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U78" s="7"/>
       <c r="V78" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W78" s="6" t="s">
         <v>7</v>
@@ -6104,28 +6113,28 @@
     </row>
     <row r="79" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G79" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R79" s="27"/>
+      <c r="R79" s="28"/>
       <c r="S79" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="T79" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U79" s="7"/>
       <c r="V79" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W79" s="6" t="s">
         <v>7</v>
@@ -6133,28 +6142,28 @@
     </row>
     <row r="80" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G80" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R80" s="27"/>
+      <c r="R80" s="28"/>
       <c r="S80" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="T80" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W80" s="6" t="s">
         <v>7</v>
@@ -6162,28 +6171,28 @@
     </row>
     <row r="81" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G81" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R81" s="27"/>
+      <c r="R81" s="28"/>
       <c r="S81" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="U81" s="7"/>
       <c r="V81" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W81" s="6" t="s">
         <v>7</v>
@@ -6191,28 +6200,28 @@
     </row>
     <row r="82" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G82" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R82" s="27"/>
+      <c r="R82" s="28"/>
       <c r="S82" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U82" s="7"/>
       <c r="V82" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W82" s="6" t="s">
         <v>7</v>
@@ -6220,28 +6229,28 @@
     </row>
     <row r="83" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G83" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R83" s="27"/>
+      <c r="R83" s="28"/>
       <c r="S83" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="U83" s="7"/>
       <c r="V83" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W83" s="6" t="s">
         <v>7</v>
@@ -6249,28 +6258,28 @@
     </row>
     <row r="84" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G84" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R84" s="27"/>
+      <c r="R84" s="28"/>
       <c r="S84" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="U84" s="7"/>
       <c r="V84" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W84" s="6" t="s">
         <v>7</v>
@@ -6278,28 +6287,28 @@
     </row>
     <row r="85" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G85" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R85" s="27"/>
+      <c r="R85" s="28"/>
       <c r="S85" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U85" s="7"/>
       <c r="V85" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W85" s="6" t="s">
         <v>7</v>
@@ -6307,108 +6316,108 @@
     </row>
     <row r="86" spans="7:23" x14ac:dyDescent="0.15">
       <c r="G86" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R86" s="27"/>
+      <c r="R86" s="28"/>
       <c r="S86" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="U86" s="7"/>
       <c r="V86" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="W86" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R87" s="27"/>
+      <c r="R87" s="28"/>
       <c r="S87" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="U87" s="7"/>
       <c r="V87" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W87" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R88" s="27"/>
+      <c r="R88" s="28"/>
       <c r="S88" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="U88" s="7"/>
       <c r="V88" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="W88" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R89" s="27"/>
+      <c r="R89" s="28"/>
       <c r="S89" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="U89" s="7"/>
       <c r="V89" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W89" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R90" s="27"/>
+      <c r="R90" s="28"/>
       <c r="S90" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="U90" s="7"/>
       <c r="V90" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="W90" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R91" s="27"/>
+      <c r="R91" s="28"/>
       <c r="S91" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="U91" s="7"/>
       <c r="V91" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="W91" s="6" t="s">
         <v>7</v>
@@ -6421,176 +6430,176 @@
       <c r="J92">
         <v>40</v>
       </c>
-      <c r="R92" s="27"/>
+      <c r="R92" s="28"/>
       <c r="S92" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="U92" s="7"/>
       <c r="V92" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="W92" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R93" s="27"/>
+      <c r="R93" s="28"/>
       <c r="S93" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="U93" s="7"/>
       <c r="V93" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W93" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R94" s="27"/>
+      <c r="R94" s="28"/>
       <c r="S94" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="T94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U94" s="7"/>
       <c r="V94" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="W94" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R95" s="27"/>
+      <c r="R95" s="28"/>
       <c r="S95" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="T95" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U95" s="7"/>
       <c r="V95" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="W95" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="7:23" x14ac:dyDescent="0.15">
-      <c r="R96" s="27"/>
+      <c r="R96" s="28"/>
       <c r="S96" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="T96" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U96" s="7"/>
       <c r="V96" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="W96" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R97" s="27"/>
+      <c r="R97" s="28"/>
       <c r="S97" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="T97" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U97" s="7"/>
       <c r="V97" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="W97" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R98" s="27"/>
+      <c r="R98" s="28"/>
       <c r="S98" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="T98" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U98" s="7"/>
       <c r="V98" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="W98" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R99" s="27"/>
+      <c r="R99" s="28"/>
       <c r="S99" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T99" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U99" s="7"/>
       <c r="V99" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="W99" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R100" s="27"/>
+      <c r="R100" s="28"/>
       <c r="S100" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="T100" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U100" s="7"/>
       <c r="V100" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="W100" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R101" s="27"/>
+      <c r="R101" s="28"/>
       <c r="S101" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="T101" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U101" s="7"/>
       <c r="V101" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="W101" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="18:25" x14ac:dyDescent="0.15">
-      <c r="R102" s="27"/>
+      <c r="R102" s="28"/>
       <c r="S102" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="T102" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U102" s="7"/>
       <c r="V102" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="W102" s="6" t="s">
         <v>7</v>
@@ -6598,51 +6607,51 @@
     </row>
     <row r="104" spans="18:25" x14ac:dyDescent="0.15">
       <c r="X104" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Y104" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="18:25" x14ac:dyDescent="0.15">
       <c r="X105" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Y105" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="18:25" x14ac:dyDescent="0.15">
       <c r="S106" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="T106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U106" s="7"/>
       <c r="V106" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="W106" s="6" t="s">
         <v>7</v>
       </c>
       <c r="X106" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="Y106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="18:25" x14ac:dyDescent="0.15">
       <c r="S107" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="T107" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U107" s="7"/>
       <c r="V107" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="W107" s="6" t="s">
         <v>7</v>
@@ -6650,14 +6659,14 @@
     </row>
     <row r="108" spans="18:25" x14ac:dyDescent="0.15">
       <c r="S108" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="T108" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U108" s="7"/>
       <c r="V108" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="W108" s="6" t="s">
         <v>7</v>
@@ -6665,14 +6674,14 @@
     </row>
     <row r="109" spans="18:25" x14ac:dyDescent="0.15">
       <c r="S109" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="T109" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U109" s="7"/>
       <c r="V109" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="W109" s="6" t="s">
         <v>7</v>
@@ -6680,14 +6689,14 @@
     </row>
     <row r="110" spans="18:25" x14ac:dyDescent="0.15">
       <c r="S110" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="T110" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U110" s="7"/>
       <c r="V110" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="W110" s="6" t="s">
         <v>7</v>
@@ -6695,14 +6704,14 @@
     </row>
     <row r="111" spans="18:25" x14ac:dyDescent="0.15">
       <c r="S111" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="T111" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U111" s="7"/>
       <c r="V111" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="W111" s="6" t="s">
         <v>7</v>
@@ -6710,14 +6719,14 @@
     </row>
     <row r="112" spans="18:25" x14ac:dyDescent="0.15">
       <c r="S112" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="T112" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U112" s="7"/>
       <c r="V112" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="W112" s="6" t="s">
         <v>7</v>
@@ -6725,14 +6734,14 @@
     </row>
     <row r="113" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S113" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="T113" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U113" s="7"/>
       <c r="V113" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="W113" s="6" t="s">
         <v>7</v>
@@ -6740,14 +6749,14 @@
     </row>
     <row r="114" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S114" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="T114" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U114" s="7"/>
       <c r="V114" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="W114" s="6" t="s">
         <v>7</v>
@@ -6755,14 +6764,14 @@
     </row>
     <row r="115" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S115" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T115" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U115" s="7"/>
       <c r="V115" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="W115" s="6" t="s">
         <v>7</v>
@@ -6770,14 +6779,14 @@
     </row>
     <row r="116" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S116" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="T116" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U116" s="7"/>
       <c r="V116" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="W116" s="6" t="s">
         <v>7</v>
@@ -6785,14 +6794,14 @@
     </row>
     <row r="117" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S117" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="T117" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U117" s="7"/>
       <c r="V117" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="W117" s="6" t="s">
         <v>7</v>
@@ -6800,14 +6809,14 @@
     </row>
     <row r="118" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S118" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="T118" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U118" s="7"/>
       <c r="V118" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="W118" s="6" t="s">
         <v>7</v>
@@ -6815,14 +6824,14 @@
     </row>
     <row r="119" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S119" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="T119" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U119" s="7"/>
       <c r="V119" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="W119" s="6" t="s">
         <v>7</v>
@@ -6830,14 +6839,14 @@
     </row>
     <row r="120" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S120" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="T120" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U120" s="7"/>
       <c r="V120" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="W120" s="6" t="s">
         <v>7</v>
@@ -6845,14 +6854,14 @@
     </row>
     <row r="121" spans="19:23" x14ac:dyDescent="0.15">
       <c r="S121" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="T121" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U121" s="7"/>
       <c r="V121" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="W121" s="6" t="s">
         <v>7</v>
@@ -6899,22 +6908,22 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I1" t="s">
+        <v>635</v>
+      </c>
+      <c r="J1" t="s">
         <v>636</v>
-      </c>
-      <c r="I1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J1" t="s">
-        <v>638</v>
       </c>
       <c r="K1">
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O1">
         <v>18</v>
@@ -6922,428 +6931,428 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B2" s="24">
+        <v>637</v>
+      </c>
+      <c r="B2" s="25">
         <v>224</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="I2" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J2" s="24">
+        <v>637</v>
+      </c>
+      <c r="J2" s="25">
         <v>224</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="25"/>
       <c r="M2" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="N2" s="24">
+        <v>637</v>
+      </c>
+      <c r="N2" s="25">
         <v>222</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="24">
+      <c r="D4" s="25">
         <f>SUM(B4:B11)</f>
         <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="25">
         <f>SUM(J4:J17)</f>
         <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N4" s="1">
         <v>4</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="25">
         <f>SUM(N4:N17)</f>
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="I5" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="25"/>
       <c r="M5" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="24"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="I6" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="24"/>
+      <c r="K6" s="25"/>
       <c r="M6" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="24"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="I7" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="25"/>
       <c r="M7" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="24"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="I8" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="24"/>
+      <c r="K8" s="25"/>
       <c r="M8" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="O8" s="24"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="I9" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="24"/>
+      <c r="K9" s="25"/>
       <c r="M9" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="24"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="I10" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="24"/>
+      <c r="K10" s="25"/>
       <c r="M10" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="24"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="I11" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="24"/>
+      <c r="K11" s="25"/>
       <c r="M11" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="24"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I12" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="24"/>
+      <c r="K12" s="25"/>
       <c r="M12" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="O12" s="24"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I13" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="25"/>
       <c r="M13" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="24"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B14" s="24">
+        <v>637</v>
+      </c>
+      <c r="B14" s="25">
         <v>223</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="I14" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="24"/>
+      <c r="K14" s="25"/>
       <c r="M14" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="24"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="25"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="24"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="29">
+      <c r="D16" s="30">
         <f>SUM(B16:B27)</f>
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="25"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="24"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="I17" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="24"/>
+      <c r="K17" s="25"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="24"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="30"/>
-      <c r="I18" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="M18" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="I18" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="M18" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="I20" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K20" s="1">
         <v>18</v>
@@ -7351,328 +7360,328 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="31"/>
       <c r="I21" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J21" s="24">
+        <v>637</v>
+      </c>
+      <c r="J21" s="25">
         <v>223</v>
       </c>
-      <c r="K21" s="24"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="I22" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="I23" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J23" s="1">
         <v>4</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="25">
         <f>SUM(J23:J37)</f>
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="31"/>
       <c r="I24" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="24"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="I25" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="24"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="I26" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="24"/>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="24"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="I28" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="24"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B29" s="24">
+        <v>637</v>
+      </c>
+      <c r="B29" s="25">
         <v>222</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="I29" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="24"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="24"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="24">
+      <c r="D31" s="25">
         <f>SUM(B31:B40)</f>
         <v>10</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="24"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="25"/>
       <c r="I32" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="24"/>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="25"/>
       <c r="I33" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="24"/>
+      <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="24"/>
+      <c r="D34" s="25"/>
       <c r="I34" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="24"/>
+      <c r="K34" s="25"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="25"/>
       <c r="I35" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="K35" s="24"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="24"/>
+      <c r="D36" s="25"/>
       <c r="I36" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="24"/>
+      <c r="K36" s="25"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="25"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="24"/>
+      <c r="K37" s="25"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="24"/>
-      <c r="I38" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
+      <c r="D38" s="25"/>
+      <c r="I38" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="24"/>
-      <c r="I39" s="28" t="s">
-        <v>672</v>
-      </c>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
+      <c r="D39" s="25"/>
+      <c r="I39" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/IO表（2R,2Y,2Z,X）.xlsx
+++ b/IO表（2R,2Y,2Z,X）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GIT储存库\PLC-mitsubishielectric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3BCD1C-1D0E-4ECA-BE3F-832B986580E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC5E39-80B8-41AD-8A8E-F6AFA32A69BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="6090" windowWidth="11220" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7515" yWindow="6645" windowWidth="18045" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
@@ -2900,7 +2900,7 @@
   <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6869,11 +6869,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="S20:W20"/>
@@ -6881,6 +6876,11 @@
     <mergeCell ref="T39:T54"/>
     <mergeCell ref="W39:W54"/>
     <mergeCell ref="R39:R102"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7685,6 +7685,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="K4:K17"/>
+    <mergeCell ref="K23:K37"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="N2:O2"/>
@@ -7694,13 +7701,6 @@
     <mergeCell ref="O4:O17"/>
     <mergeCell ref="D16:D27"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="K4:K17"/>
-    <mergeCell ref="K23:K37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
